--- a/backend/trainings_data.xlsx
+++ b/backend/trainings_data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +483,11 @@
           <t>createdAt</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>__v</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +535,7 @@
           <t>2024-01-27 13:38:45</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,6 +583,7 @@
           <t>2024-01-30 02:17:34</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -620,6 +631,7 @@
           <t>2024-02-09 04:41:46</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -667,6 +679,7 @@
           <t>2024-01-13 01:18:51</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +727,7 @@
           <t>2024-01-02 13:50:55</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -761,6 +775,7 @@
           <t>2024-01-20 02:09:29</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -808,6 +823,7 @@
           <t>2024-02-10 18:31:19</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -855,6 +871,7 @@
           <t>2024-02-02 16:24:51</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -902,6 +919,7 @@
           <t>2024-01-12 06:18:11</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -949,6 +967,7 @@
           <t>2024-03-16 06:16:32</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -996,6 +1015,7 @@
           <t>2024-03-01 20:06:34</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1043,6 +1063,7 @@
           <t>2024-03-17 19:50:14</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1090,6 +1111,7 @@
           <t>2024-03-18 22:29:53</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1137,6 +1159,7 @@
           <t>2024-03-17 16:06:02</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1184,6 +1207,7 @@
           <t>2024-02-20 06:11:11</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1231,6 +1255,7 @@
           <t>2024-03-27 00:59:25</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1278,6 +1303,7 @@
           <t>2024-02-20 18:55:17</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1325,6 +1351,7 @@
           <t>2024-02-16 00:35:39</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1372,6 +1399,7 @@
           <t>2024-01-22 14:36:59</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1419,6 +1447,7 @@
           <t>2024-03-29 11:51:41</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1466,6 +1495,7 @@
           <t>2024-03-20 12:20:12</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1513,6 +1543,7 @@
           <t>2024-03-05 20:10:12</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1560,6 +1591,7 @@
           <t>2024-02-05 17:56:59</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1607,6 +1639,7 @@
           <t>2024-01-27 19:00:29</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1654,6 +1687,7 @@
           <t>2024-02-17 21:27:23</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1701,6 +1735,7 @@
           <t>2024-03-23 10:24:02</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1748,6 +1783,7 @@
           <t>2024-01-10 10:46:38</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1795,6 +1831,7 @@
           <t>2024-01-31 19:49:01</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1842,6 +1879,7 @@
           <t>2024-02-05 20:13:59</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1889,6 +1927,7 @@
           <t>2024-03-04 00:04:45</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1936,6 +1975,7 @@
           <t>2024-04-02 23:22:08</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1983,6 +2023,7 @@
           <t>2024-03-01 07:42:26</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2030,6 +2071,7 @@
           <t>2024-03-01 07:41:13</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2077,6 +2119,7 @@
           <t>2024-03-08 05:57:07</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2124,6 +2167,7 @@
           <t>2024-03-24 14:42:00</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2171,6 +2215,7 @@
           <t>2024-02-28 01:05:43</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2218,6 +2263,7 @@
           <t>2024-01-07 23:00:34</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2265,6 +2311,7 @@
           <t>2024-03-21 19:38:07</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2312,6 +2359,7 @@
           <t>2024-02-04 12:49:30</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2359,6 +2407,7 @@
           <t>2024-02-23 17:15:15</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2406,6 +2455,7 @@
           <t>2024-02-28 19:01:04</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2453,6 +2503,7 @@
           <t>2024-01-15 22:01:35</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2500,6 +2551,7 @@
           <t>2024-03-29 07:18:42</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2547,6 +2599,7 @@
           <t>2024-02-14 11:20:48</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2594,6 +2647,7 @@
           <t>2024-01-08 19:37:39</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2641,6 +2695,7 @@
           <t>2024-01-07 06:43:34</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2688,6 +2743,7 @@
           <t>2024-02-17 12:12:13</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2735,6 +2791,7 @@
           <t>2024-03-09 20:53:03</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2782,6 +2839,7 @@
           <t>2024-02-10 07:00:58</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2829,6 +2887,7 @@
           <t>2024-03-19 12:08:43</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2876,6 +2935,7 @@
           <t>2024-03-08 15:56:34</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2923,6 +2983,7 @@
           <t>2024-03-02 14:14:17</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2970,6 +3031,7 @@
           <t>2024-03-25 23:17:46</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3017,6 +3079,7 @@
           <t>2024-03-08 17:32:20</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3064,6 +3127,7 @@
           <t>2024-03-17 12:57:09</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3111,6 +3175,7 @@
           <t>2024-01-14 08:53:22</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3158,6 +3223,7 @@
           <t>2024-02-08 01:37:30</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3205,6 +3271,7 @@
           <t>2024-02-02 22:56:18</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3252,6 +3319,7 @@
           <t>2024-01-12 00:44:52</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3299,6 +3367,7 @@
           <t>2024-02-12 17:15:05</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3346,6 +3415,7 @@
           <t>2024-01-31 02:13:47</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3393,6 +3463,7 @@
           <t>2024-01-28 12:36:08</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3440,6 +3511,7 @@
           <t>2024-02-14 20:11:47</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3487,6 +3559,7 @@
           <t>2024-01-08 01:08:50</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3534,6 +3607,7 @@
           <t>2024-04-01 00:31:09</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3581,6 +3655,7 @@
           <t>2024-04-01 11:47:50</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3628,6 +3703,7 @@
           <t>2024-03-16 23:57:22</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3675,6 +3751,7 @@
           <t>2024-02-10 23:39:13</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3722,6 +3799,7 @@
           <t>2024-02-01 21:23:28</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3769,6 +3847,7 @@
           <t>2024-01-31 05:05:28</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3816,6 +3895,7 @@
           <t>2024-01-12 18:56:15</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3863,6 +3943,7 @@
           <t>2024-01-28 18:59:01</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3910,6 +3991,7 @@
           <t>2024-03-08 23:31:50</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3957,6 +4039,7 @@
           <t>2024-03-15 03:11:17</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4004,6 +4087,7 @@
           <t>2024-01-23 11:19:02</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4051,6 +4135,7 @@
           <t>2024-03-14 12:26:33</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4098,6 +4183,7 @@
           <t>2024-01-11 12:13:25</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4145,6 +4231,7 @@
           <t>2024-03-15 16:20:44</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4192,6 +4279,7 @@
           <t>2024-02-22 16:23:25</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4239,6 +4327,7 @@
           <t>2024-02-27 01:36:34</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4286,6 +4375,7 @@
           <t>2024-02-02 11:47:45</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4333,6 +4423,7 @@
           <t>2024-03-12 12:54:12</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4380,6 +4471,7 @@
           <t>2024-02-09 17:03:59</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4427,6 +4519,7 @@
           <t>2024-02-16 12:47:17</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4474,6 +4567,7 @@
           <t>2024-01-20 21:42:03</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4521,6 +4615,7 @@
           <t>2024-03-28 11:43:41</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4568,6 +4663,7 @@
           <t>2024-03-10 21:01:28</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4615,6 +4711,7 @@
           <t>2024-03-22 07:08:50</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4662,6 +4759,7 @@
           <t>2024-03-27 06:19:54</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4709,6 +4807,7 @@
           <t>2024-01-15 02:54:42</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4756,6 +4855,7 @@
           <t>2024-02-17 21:56:43</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4803,6 +4903,7 @@
           <t>2024-02-01 12:09:21</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4850,6 +4951,7 @@
           <t>2024-04-01 18:49:22</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4897,6 +4999,7 @@
           <t>2024-01-20 22:18:03</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4944,6 +5047,7 @@
           <t>2024-01-29 16:11:27</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4991,6 +5095,7 @@
           <t>2024-01-17 17:04:56</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5038,6 +5143,7 @@
           <t>2024-01-08 08:05:09</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5085,6 +5191,7 @@
           <t>2024-03-17 18:52:13</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5131,6 +5238,49 @@
         <is>
           <t>2024-03-16 21:28:41</t>
         </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Training_121</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DBT</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>frfefserrer</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Emp_1000</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>dfrfee</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="H101" t="n">
+        <v>20</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>45386.31138303241</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/trainings_data.xlsx
+++ b/backend/trainings_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/trainings_data.xlsx
+++ b/backend/trainings_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,32 +456,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>trainerName</t>
+          <t>startDate</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>startDate</t>
+          <t>endDate</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>endDate</t>
+          <t>optimizedDuration</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>optimizedDuration</t>
+          <t>timingOfTraining</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>createdAt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>__v</t>
         </is>
       </c>
     </row>
@@ -497,45 +488,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Song sea may per play her.</t>
+          <t>Bar happen poor hold strategy race.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emp_1</t>
+          <t>Emp_162</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brian Spencer</t>
+          <t>2024-05-12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2022-11-15</t>
-        </is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>26</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2024-05-12 00:00:00 - 2024-05-17 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-01-27 13:38:45</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>2024-02-19 20:13:21</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -545,45 +533,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Station chance glass operation economic task almost feeling.</t>
+          <t>Power this through.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emp_2</t>
+          <t>Emp_171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Logan Benjamin</t>
+          <t>2024-06-08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-07-11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2021-07-20</t>
-        </is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2024-06-08 00:00:00 - 2024-06-17 00:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-01-30 02:17:34</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>2024-01-11 15:10:36</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -593,45 +578,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lay trouble lawyer human career.</t>
+          <t>Detail thousand office blood herself involve food protect.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Emp_3</t>
+          <t>Emp_135</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kevin Anderson</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2020-02-03</t>
-        </is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2024-12-03 00:00:00 - 2024-12-11 00:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-02-09 04:41:46</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>2024-03-22 00:28:39</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,45 +623,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Current likely upon join election challenge.</t>
+          <t>Produce seek face yeah cup order.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Emp_4</t>
+          <t>Emp_171</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Regina Esparza</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2022-11-07</t>
-        </is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>31</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2024-08-06 00:00:00 - 2024-08-13 00:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-01-13 01:18:51</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>2024-03-29 22:32:03</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -689,45 +668,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Have thus response business live.</t>
+          <t>Piece identify south see hospital after drive allow.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Emp_5</t>
+          <t>Emp_188</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sarah Porter</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2020-03-09</t>
-        </is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>23</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2024-03-11 00:00:00 - 2024-03-20 00:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-01-02 13:50:55</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>2024-01-03 22:01:24</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -737,45 +713,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Radio difficult specific management.</t>
+          <t>Out thought entire teach close mention data.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Emp_6</t>
+          <t>Emp_164</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Michael Smith</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020-09-22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2020-09-27</t>
-        </is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>40</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2024-12-03 00:00:00 - 2024-12-10 00:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-01-20 02:09:29</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>2024-03-04 23:23:36</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -785,45 +758,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Long state well.</t>
+          <t>Race fine tough then ahead look father finish.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Emp_7</t>
+          <t>Emp_147</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jason Jenkins</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2023-07-13</t>
-        </is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>35</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2024-02-04 00:00:00 - 2024-02-12 00:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-02-10 18:31:19</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>2024-02-20 09:45:42</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -833,45 +803,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Serve myself few worker.</t>
+          <t>Partner hair structure nice.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Emp_8</t>
+          <t>Emp_133</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Christopher Black</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020-12-24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2020-12-31</t>
-        </is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2024-05-02 00:00:00 - 2024-05-10 00:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-02-02 16:24:51</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>2024-02-28 16:41:42</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -881,45 +848,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Even soon effect mind dream long.</t>
+          <t>Later size avoid PM tree.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Emp_9</t>
+          <t>Emp_52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Charles Farrell</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2020-06-01</t>
-        </is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2024-06-10 00:00:00 - 2024-06-18 00:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-01-12 06:18:11</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>2024-01-28 19:38:37</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -929,45 +893,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Range stuff despite live interview then firm my.</t>
+          <t>Author center feeling newspaper reflect.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Emp_10</t>
+          <t>Emp_9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Michael Marquez</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2024-05-14 00:00:00 - 2024-05-22 00:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-03-16 06:16:32</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>2024-01-03 12:04:58</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -977,45 +938,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ago player his course.</t>
+          <t>Sport management its walk image.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Emp_11</t>
+          <t>Emp_66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Thomas Baker</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2023-09-09</t>
-        </is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>17</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2024-11-27 00:00:00 - 2024-12-05 00:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-03-01 20:06:34</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>2024-02-13 02:32:47</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1025,45 +983,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Great close laugh actually opportunity education.</t>
+          <t>Perhaps good pretty when shoulder above office.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Emp_12</t>
+          <t>Emp_129</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Beverly Craig</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2020-05-03</t>
-        </is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>39</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2024-06-12 00:00:00 - 2024-06-21 00:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-03-17 19:50:14</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>2024-01-26 12:46:29</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1073,45 +1028,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Attention herself with difficult upon computer.</t>
+          <t>Test skill player probably weight Mr test.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Emp_13</t>
+          <t>Emp_84</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Amy Moran</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>2024-01-29 00:00:00 - 2024-02-08 00:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-03-18 22:29:53</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>2024-01-07 04:27:11</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1121,45 +1073,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Art bit time from present visit according.</t>
+          <t>Out opportunity treatment those.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Emp_14</t>
+          <t>Emp_93</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Laura Austin</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2023-12-08</t>
-        </is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>23</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2024-06-18 00:00:00 - 2024-06-27 00:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-03-17 16:06:02</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>2024-02-22 14:38:23</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1169,45 +1118,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Behavior common population information.</t>
+          <t>At vote happen.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Emp_15</t>
+          <t>Emp_195</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Melissa Bryant</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2022-10-05</t>
-        </is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2024-02-01 00:00:00 - 2024-02-10 00:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-02-20 06:11:11</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>2024-03-30 14:42:48</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1217,45 +1163,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Attorney majority during feel coach turn.</t>
+          <t>Close push sea loss because.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Emp_16</t>
+          <t>Emp_21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kyle King</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2023-05-11</t>
-        </is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>28</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2024-08-14 00:00:00 - 2024-08-22 00:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-03-27 00:59:25</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>2024-03-31 12:09:20</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1265,45 +1208,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Heavy either within decide become.</t>
+          <t>Son natural phone factor.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Emp_17</t>
+          <t>Emp_158</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>David Torres</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2020-07-22</t>
-        </is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2024-05-03 00:00:00 - 2024-05-09 00:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-02-20 18:55:17</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>2024-03-21 01:49:53</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1313,45 +1253,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Various performance alone behavior leg page.</t>
+          <t>Behind my talk defense green amount do yet.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Emp_18</t>
+          <t>Emp_118</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Marie Acosta</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2024-02-13</t>
-        </is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>28</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2024-03-16 00:00:00 - 2024-03-25 00:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-02-16 00:35:39</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>2024-03-21 04:30:36</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1361,45 +1298,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Political last open science game yet show theory.</t>
+          <t>Short none least chance street firm ago wall.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Emp_19</t>
+          <t>Emp_53</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Frank Rogers</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2022-06-16</t>
-        </is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>32</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2024-12-01 00:00:00 - 2024-12-09 00:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-01-22 14:36:59</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>2024-03-31 07:14:40</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1409,45 +1343,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Collection various throw.</t>
+          <t>Work relationship indicate or at and again.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Emp_20</t>
+          <t>Emp_38</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>David Green</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2022-12-06</t>
-        </is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>32</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2024-12-26 00:00:00 - 2024-12-31 00:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-03-29 11:51:41</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>2024-03-23 17:34:35</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1457,45 +1388,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Particularly whole modern fear along realize organization.</t>
+          <t>Recognize us win coach nor church.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Emp_21</t>
+          <t>Emp_136</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Spencer Lee</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
-        </is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>36</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2024-02-02 00:00:00 - 2024-02-07 00:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-03-20 12:20:12</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>2024-01-30 10:42:26</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1505,45 +1433,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Attorney reveal have according clearly more.</t>
+          <t>Education condition how find relationship nature build.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Emp_22</t>
+          <t>Emp_186</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Victoria Rojas</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-04-07</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2021-04-17</t>
-        </is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>33</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2024-02-04 00:00:00 - 2024-02-14 00:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-03-05 20:10:12</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>2024-03-23 11:45:45</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1553,45 +1478,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lawyer space attorney race know.</t>
+          <t>Cut town care front.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Emp_23</t>
+          <t>Emp_15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Megan Valdez</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2022-03-19</t>
-        </is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>38</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2024-04-04 00:00:00 - 2024-04-11 00:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-02-05 17:56:59</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>2024-01-29 19:23:47</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1601,45 +1523,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lot cause second want.</t>
+          <t>Have phone direction Mrs capital.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Emp_24</t>
+          <t>Emp_166</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Amanda Webb</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2024-09-01 00:00:00 - 2024-09-08 00:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-01-27 19:00:29</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>2024-03-25 03:18:44</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1649,45 +1568,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Poor either remember power rate director.</t>
+          <t>About heart population enough network find forget cold.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Emp_25</t>
+          <t>Emp_42</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nicole Martin</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>26</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2024-11-05 00:00:00 - 2024-11-15 00:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-02-17 21:27:23</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>2024-01-11 16:20:34</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1697,45 +1613,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Reach doctor budget maintain significant.</t>
+          <t>Finish black husband about good.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Emp_26</t>
+          <t>Emp_198</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Stephen Hall</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2020-02-02</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>30</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2024-10-01 00:00:00 - 2024-10-06 00:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-03-23 10:24:02</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>2024-01-27 00:00:50</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1745,45 +1658,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Street realize close.</t>
+          <t>Minute success right tough.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emp_27</t>
+          <t>Emp_171</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jaclyn Williams</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2020-12-08</t>
-        </is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2024-05-02 00:00:00 - 2024-05-07 00:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-01-10 10:46:38</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>2024-02-18 00:18:45</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1793,45 +1703,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hundred artist newspaper above huge agent.</t>
+          <t>Himself involve chance.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Emp_28</t>
+          <t>Emp_3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kathleen Willis</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2023-10-12</t>
-        </is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>2024-02-02 00:00:00 - 2024-02-12 00:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-01-31 19:49:01</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>2024-03-31 05:11:28</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1841,45 +1748,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Second television loss friend.</t>
+          <t>Impact early benefit whatever rock be this.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Emp_29</t>
+          <t>Emp_37</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Frank Briggs</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2022-09-29</t>
-        </is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2024-06-29 00:00:00 - 2024-07-06 00:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-02-05 20:13:59</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>2024-02-25 00:25:55</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1889,45 +1793,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Different recognize score million plan pretty wrong.</t>
+          <t>Measure back together arm little specific suddenly about.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emp_30</t>
+          <t>Emp_193</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Taylor Villa</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2023-12-14</t>
-        </is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>40</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2024-08-29 00:00:00 - 2024-09-07 00:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-03-04 00:04:45</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>2024-02-03 04:09:54</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1937,45 +1838,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Modern everything big move.</t>
+          <t>Type two you finish.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Emp_31</t>
+          <t>Emp_68</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ashley Thomas</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2022-07-15</t>
-        </is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>26</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2024-05-30 00:00:00 - 2024-06-09 00:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-04-02 23:22:08</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>2024-02-05 23:42:27</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1990,40 +1888,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Foot response great cold.</t>
+          <t>Option drug side.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Emp_32</t>
+          <t>Emp_152</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Julie Gregory MD</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2023-04-10</t>
-        </is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>8</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2024-01-03 00:00:00 - 2024-01-10 00:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-03-01 07:42:26</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>2024-03-22 11:49:38</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2033,45 +1928,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Suddenly usually himself some third.</t>
+          <t>Trip ready again soon store system financial.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Emp_33</t>
+          <t>Emp_114</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brandi Graham</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2022-07-29</t>
-        </is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>13</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2024-10-22 00:00:00 - 2024-10-31 00:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-03-01 07:41:13</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>2024-01-22 04:24:52</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2081,45 +1973,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Specific lose particular build young.</t>
+          <t>Economy visit anything.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Emp_34</t>
+          <t>Emp_20</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>James Collins</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2023-10-14</t>
-        </is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>26</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2024-09-20 00:00:00 - 2024-09-27 00:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-03-08 05:57:07</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>2024-02-12 19:18:43</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2129,45 +2018,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Would task heavy quite window actually.</t>
+          <t>National wind kitchen pay range image increase.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Emp_35</t>
+          <t>Emp_181</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>John Garcia</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2022-02-05</t>
-        </is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>40</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2024-09-02 00:00:00 - 2024-09-07 00:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-03-24 14:42:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>2024-02-19 00:24:50</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2177,45 +2063,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Good down mind education certain end his.</t>
+          <t>Address bag there heavy.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emp_36</t>
+          <t>Emp_73</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kevin Strickland</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2020-09-11</t>
-        </is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>16</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2024-12-08 00:00:00 - 2024-12-13 00:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-02-28 01:05:43</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>2024-02-25 06:03:46</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2225,45 +2108,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>End center approach.</t>
+          <t>Report international concern religious camera.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Emp_37</t>
+          <t>Emp_133</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Andrea Gilbert</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2020-06-17</t>
-        </is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>32</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2024-02-10 00:00:00 - 2024-02-16 00:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-01-07 23:00:34</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>2024-03-05 01:07:06</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2273,45 +2153,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Series spend let democratic group.</t>
+          <t>Hit old upon national.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Emp_38</t>
+          <t>Emp_42</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Gabriella Key</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2020-03-19</t>
-        </is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>17</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2024-03-07 00:00:00 - 2024-03-16 00:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-03-21 19:38:07</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>2024-02-12 12:37:59</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2321,45 +2198,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Office Mr beyond source some fast wonder.</t>
+          <t>Out sport mean rock.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Emp_39</t>
+          <t>Emp_20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Phillip Mendoza</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>24</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2024-11-06 00:00:00 - 2024-11-11 00:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-02-04 12:49:30</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>2024-04-06 06:00:38</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2374,40 +2248,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Current lot win leg rule.</t>
+          <t>Stock research common truth whether wait hour.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Emp_40</t>
+          <t>Emp_93</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Maxwell Lowe</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2023-07-28</t>
-        </is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>37</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2024-04-08 00:00:00 - 2024-04-18 00:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-02-23 17:15:15</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>2024-01-26 03:15:50</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2417,45 +2288,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mission outside by also war.</t>
+          <t>Hot front interesting stand heavy we wait out.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Emp_41</t>
+          <t>Emp_180</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kevin Campbell</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2022-02-12</t>
-        </is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>31</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2024-03-01 00:00:00 - 2024-03-08 00:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-02-28 19:01:04</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>2024-02-25 13:04:25</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2465,45 +2333,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Well teacher until memory knowledge.</t>
+          <t>Leg bar star case drive choice.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Emp_42</t>
+          <t>Emp_136</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Heidi Gallegos</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2023-01-13</t>
-        </is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2024-07-19 00:00:00 - 2024-07-26 00:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-01-15 22:01:35</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>2024-02-06 04:17:30</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2513,45 +2378,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Add including husband choice kid.</t>
+          <t>Case near law likely drive change amount miss.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Emp_43</t>
+          <t>Emp_57</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Karen Mendoza</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2021-01-26</t>
-        </is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2024-12-21 00:00:00 - 2024-12-28 00:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-03-29 07:18:42</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t>2024-01-31 15:26:41</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2561,45 +2423,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Message look recent exist hair nearly.</t>
+          <t>Specific join blue data my.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Emp_44</t>
+          <t>Emp_97</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Christina Robertson</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2022-09-25</t>
-        </is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>37</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2024-09-02 00:00:00 - 2024-09-07 00:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-02-14 11:20:48</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>2024-01-15 18:12:38</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2609,45 +2468,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Grow avoid speech.</t>
+          <t>Product produce many parent trip moment.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Emp_45</t>
+          <t>Emp_43</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>James Dougherty</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2020-11-24</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2020-12-03</t>
-        </is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>24</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2024-03-31 00:00:00 - 2024-04-06 00:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-01-08 19:37:39</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
+          <t>2024-02-14 08:52:30</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2662,40 +2518,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Only admit get energy process successful forget.</t>
+          <t>Each professional sure do.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Emp_46</t>
+          <t>Emp_193</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Julie Nelson</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2021-05-18</t>
-        </is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>24</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2024-08-11 00:00:00 - 2024-08-19 00:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-01-07 06:43:34</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
+          <t>2024-02-09 16:01:24</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2710,40 +2563,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ever and sport who.</t>
+          <t>Use state yeah late education mind apply.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Emp_47</t>
+          <t>Emp_179</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jeffrey Bruce</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-10-15</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2022-10-21</t>
-        </is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>20</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2024-06-21 00:00:00 - 2024-06-27 00:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-02-17 12:12:13</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t>2024-01-18 22:46:28</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2753,45 +2603,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Body line voice try ten deep.</t>
+          <t>Follow near read car respond.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Emp_48</t>
+          <t>Emp_189</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jose Hill</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-05-22</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2021-05-28</t>
-        </is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>27</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2024-10-01 00:00:00 - 2024-10-07 00:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-03-09 20:53:03</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t>2024-01-24 23:01:54</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2801,45 +2648,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>I star station finish.</t>
+          <t>Political happy responsibility move once air remain.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Emp_49</t>
+          <t>Emp_46</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Susan Davila</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2020-04-03</t>
-        </is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>25</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2024-07-03 00:00:00 - 2024-07-12 00:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-02-10 07:00:58</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
+          <t>2024-02-17 18:32:27</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2849,45 +2693,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Firm star enough tough feeling member.</t>
+          <t>Music majority pass man today right.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Emp_50</t>
+          <t>Emp_51</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Elizabeth Mullins</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2020-05-11</t>
-        </is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>36</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2024-07-18 00:00:00 - 2024-07-28 00:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-03-19 12:08:43</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t>2024-04-07 01:16:50</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2897,45 +2738,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Put arm ok window church fear forward.</t>
+          <t>Debate meet conference send land entire agree.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Emp_51</t>
+          <t>Emp_12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jade Young</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2021-10-07</t>
-        </is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>12</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2024-02-29 00:00:00 - 2024-03-07 00:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2024-03-08 15:56:34</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>2024-01-05 07:15:27</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2945,45 +2783,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Deep goal type major serious relationship discuss.</t>
+          <t>Since space such floor push story.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Emp_52</t>
+          <t>Emp_146</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Timothy Lopez</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2021-07-29</t>
-        </is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>40</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2024-01-19 00:00:00 - 2024-01-26 00:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2024-03-02 14:14:17</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t>2024-03-18 20:20:04</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2998,40 +2833,37 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Source reality onto plant vote.</t>
+          <t>Class teacher state call customer remember court sense.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Emp_53</t>
+          <t>Emp_104</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Vickie Sanchez</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2023-01-10</t>
-        </is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>27</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2024-11-08 00:00:00 - 2024-11-16 00:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2024-03-25 23:17:46</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>2024-01-21 19:50:47</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3041,45 +2873,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Just war woman culture ever.</t>
+          <t>Practice throw use statement reason no find.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Emp_54</t>
+          <t>Emp_39</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Daniel Stephens</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2024-04-07</t>
-        </is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>6</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2024-09-09 00:00:00 - 2024-09-15 00:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2024-03-08 17:32:20</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>2024-03-25 11:08:11</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3089,45 +2918,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Speech others strategy far free training however.</t>
+          <t>Condition race you positive thus.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Emp_55</t>
+          <t>Emp_128</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Alexandra Hill</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2024-03-10</t>
-        </is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>29</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2024-06-16 00:00:00 - 2024-06-23 00:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2024-03-17 12:57:09</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>2024-02-23 03:41:24</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3137,45 +2963,42 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>View camera and decision.</t>
+          <t>Charge tell guess garden second own prevent.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Emp_56</t>
+          <t>Emp_14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gabriel Garcia</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023-04-22</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2023-04-27</t>
-        </is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>36</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2024-10-15 00:00:00 - 2024-10-23 00:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2024-01-14 08:53:22</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>2024-02-25 21:07:55</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3185,45 +3008,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Parent in activity.</t>
+          <t>Forward institution between agent.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Emp_57</t>
+          <t>Emp_16</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Zachary Carter</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2022-01-23</t>
-        </is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2024-04-04 00:00:00 - 2024-04-14 00:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2024-02-08 01:37:30</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>2024-03-18 05:27:31</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3233,45 +3053,42 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Husband main happy professor writer item.</t>
+          <t>Present current sing main animal.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Emp_58</t>
+          <t>Emp_103</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Henry Blackburn</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2020-05-14</t>
-        </is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>10</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2024-05-11 00:00:00 - 2024-05-18 00:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2024-02-02 22:56:18</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>2024-03-20 21:05:51</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3281,45 +3098,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Poor yourself serve wide herself close.</t>
+          <t>Discuss late continue employee fear tonight.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Emp_59</t>
+          <t>Emp_20</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jenny Chen</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-03-03</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2021-03-10</t>
-        </is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2024-03-16 00:00:00 - 2024-03-22 00:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2024-01-12 00:44:52</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>2024-03-05 04:17:48</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3329,45 +3143,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Prepare choice scene recent cup teacher.</t>
+          <t>Drive exist ahead over consumer city resource onto.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Emp_60</t>
+          <t>Emp_33</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Dr. Linda Cantu</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2020-06-06</t>
-        </is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>24</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2024-07-20 00:00:00 - 2024-07-26 00:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2024-02-12 17:15:05</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>2024-02-24 01:28:01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3377,45 +3188,42 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Court someone you yet debate.</t>
+          <t>President you gas until raise with much.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Emp_61</t>
+          <t>Emp_11</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gregory Gordon</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2021-01-05</t>
-        </is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>12</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2024-10-10 00:00:00 - 2024-10-19 00:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2024-01-31 02:13:47</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>2024-04-02 15:07:07</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3425,45 +3233,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sometimes in method.</t>
+          <t>Item huge rest.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Emp_62</t>
+          <t>Emp_89</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Rebecca Reed</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>25</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>2024-03-10 00:00:00 - 2024-03-19 00:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2024-01-28 12:36:08</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t>2024-03-04 00:17:01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3473,45 +3278,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bank special try heart act individual decision.</t>
+          <t>Something first simple this everything modern also.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Emp_63</t>
+          <t>Emp_92</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Lori Diaz</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2022-02-18</t>
-        </is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>33</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2024-10-22 00:00:00 - 2024-10-29 00:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2024-02-14 20:11:47</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
+          <t>2024-01-03 01:06:30</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3521,45 +3323,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Talk behind others as.</t>
+          <t>Herself would draw interview agreement politics article.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Emp_64</t>
+          <t>Emp_8</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Patricia Keller</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2020-10-13</t>
-        </is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>31</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2024-06-02 00:00:00 - 2024-06-11 00:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2024-01-08 01:08:50</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>2024-03-14 22:16:13</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3569,45 +3368,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Find realize former rock Mrs recognize friend.</t>
+          <t>Attorney expect event its.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Emp_65</t>
+          <t>Emp_77</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Amanda Johnson</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-11-25</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2021-11-30</t>
-        </is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2024-02-20 00:00:00 - 2024-02-26 00:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2024-04-01 00:31:09</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>2024-02-07 05:42:12</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3617,45 +3413,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Finally want effect thought page.</t>
+          <t>Now everybody road ok member people.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Emp_66</t>
+          <t>Emp_77</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Tara Hall</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2020-03-24</t>
-        </is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>18</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2024-01-15 00:00:00 - 2024-01-20 00:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2024-04-01 11:47:50</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>2024-01-07 23:13:29</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3665,45 +3458,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Century give wait.</t>
+          <t>Defense stay hundred reveal knowledge when source capital.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Emp_67</t>
+          <t>Emp_16</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Donna Barnes</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2020-07-31</t>
-        </is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>25</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2024-07-05 00:00:00 - 2024-07-12 00:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2024-03-16 23:57:22</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
+          <t>2024-01-11 05:25:58</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3718,40 +3508,37 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Already food actually visit suddenly democratic.</t>
+          <t>Push serve room it but maybe poor.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Emp_68</t>
+          <t>Emp_136</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Elizabeth Christian</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2021-04-11</t>
-        </is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>14</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2024-08-16 00:00:00 - 2024-08-25 00:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2024-02-10 23:39:13</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
+          <t>2024-01-15 14:50:36</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3761,45 +3548,42 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Back financial sound it more rest ability itself.</t>
+          <t>Clear fly adult later certainly family argue.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Emp_69</t>
+          <t>Emp_18</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>John Dixon</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2024-03-29 00:00:00 - 2024-04-03 00:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2024-02-01 21:23:28</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>2024-03-16 15:27:21</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3809,45 +3593,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Discussion offer major economic all.</t>
+          <t>Model race positive someone around.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Emp_70</t>
+          <t>Emp_127</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Laurie Silva</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2023-02-19</t>
-        </is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>12</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2024-02-06 00:00:00 - 2024-02-13 00:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2024-01-31 05:05:28</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>2024-01-26 20:52:00</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3857,45 +3638,42 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cultural spring represent standard half newspaper common.</t>
+          <t>Remember thing product military.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Emp_71</t>
+          <t>Emp_85</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Joshua Obrien</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2020-10-07</t>
-        </is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>25</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2024-05-13 00:00:00 - 2024-05-23 00:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2024-01-12 18:56:15</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>2024-03-03 11:03:57</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3905,45 +3683,42 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Why beautiful soldier condition.</t>
+          <t>Hour technology picture.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Emp_72</t>
+          <t>Emp_198</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Nicholas Austin</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>20</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2024-08-28 00:00:00 - 2024-09-03 00:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2024-01-28 18:59:01</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>2024-01-25 19:26:31</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3953,45 +3728,42 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Room force with board door become arm.</t>
+          <t>Law behavior seven western.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Emp_73</t>
+          <t>Emp_21</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Christopher Ramirez</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2021-10-24</t>
-        </is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>15</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2024-01-24 00:00:00 - 2024-01-30 00:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2024-03-08 23:31:50</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
+          <t>2024-01-11 03:43:57</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4001,45 +3773,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Reflect oil increase enjoy explain.</t>
+          <t>Material executive work protect.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Emp_74</t>
+          <t>Emp_28</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Brittany Guzman</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2023-07-07</t>
-        </is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>32</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2024-12-02 00:00:00 - 2024-12-09 00:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2024-03-15 03:11:17</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>2024-03-16 20:56:18</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4054,40 +3823,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Interesting expert sing worry hold thing collection worry.</t>
+          <t>Age avoid agreement health doctor act camera may.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Emp_75</t>
+          <t>Emp_21</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Maria Mcdonald</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2021-12-18</t>
-        </is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>7</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2024-12-15 00:00:00 - 2024-12-25 00:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2024-01-23 11:19:02</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
+          <t>2024-03-14 04:17:59</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4097,45 +3863,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Southern stop can.</t>
+          <t>According family top kid production suffer school.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Emp_76</t>
+          <t>Emp_68</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aaron Snyder</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2023-02-23</t>
-        </is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>27</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>2024-12-23 00:00:00 - 2024-12-31 00:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2024-03-14 12:26:33</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
+          <t>2024-02-10 21:07:36</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4145,45 +3908,42 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Debate its for special enter similar.</t>
+          <t>Single member system clear human remain.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Emp_77</t>
+          <t>Emp_50</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Monique Jensen</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2020-07-30</t>
-        </is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>14</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>2024-09-18 00:00:00 - 2024-09-24 00:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2024-01-11 12:13:25</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>2024-03-09 21:24:16</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4193,45 +3953,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Radio effect after low bad meeting.</t>
+          <t>Around court majority result.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Emp_78</t>
+          <t>Emp_53</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Jennifer Griffin</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2024-01-10</t>
-        </is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>7</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2024-08-05 00:00:00 - 2024-08-14 00:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2024-03-15 16:20:44</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>2024-03-23 12:35:21</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4241,45 +3998,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Blue too player subject total couple.</t>
+          <t>Job main cell different.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Emp_79</t>
+          <t>Emp_137</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Stephanie Simmons</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-01-02</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2021-01-09</t>
-        </is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>22</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2024-09-29 00:00:00 - 2024-10-04 00:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2024-02-22 16:23:25</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
+          <t>2024-01-23 03:02:09</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4289,45 +4043,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Use mouth out.</t>
+          <t>Personal life discussion article practice.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Emp_80</t>
+          <t>Emp_1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>April Orozco</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2023-05-25</t>
-        </is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>13</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2024-02-18 00:00:00 - 2024-02-27 00:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2024-02-27 01:36:34</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>2024-03-12 19:39:13</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4337,45 +4088,42 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Worry describe central relationship mind almost.</t>
+          <t>Manager sing teacher couple.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Emp_81</t>
+          <t>Emp_133</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bryan Stout</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2024-06-21 00:00:00 - 2024-06-29 00:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2024-02-02 11:47:45</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>2024-02-28 10:21:27</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4385,45 +4133,42 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>House song than word weight save main near.</t>
+          <t>Call mean example create run effect reason.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Emp_82</t>
+          <t>Emp_200</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mackenzie Cunningham</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2023-03-22</t>
-        </is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2024-06-17 00:00:00 - 2024-06-24 00:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2024-03-12 12:54:12</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
+          <t>2024-02-28 17:43:29</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4433,45 +4178,42 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>College yet teach degree not order success.</t>
+          <t>Cup single career office bit stop we.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Emp_83</t>
+          <t>Emp_191</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Jon Cox</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>28</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>2024-12-19 00:00:00 - 2024-12-29 00:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2024-02-09 17:03:59</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>2024-01-01 16:57:23</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4481,45 +4223,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Get contain believe or short.</t>
+          <t>Mrs parent reason summer play camera forward.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Emp_84</t>
+          <t>Emp_163</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kathryn Sanchez MD</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2020-06-14</t>
-        </is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>6</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2024-07-03 00:00:00 - 2024-07-11 00:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2024-02-16 12:47:17</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
+          <t>2024-02-03 13:13:50</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4534,40 +4273,37 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Senior TV respond degree.</t>
+          <t>Southern until every table.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Emp_85</t>
+          <t>Emp_35</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Jeanne Melton</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2022-07-15</t>
-        </is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>37</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2024-11-16 00:00:00 - 2024-11-21 00:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2024-01-20 21:42:03</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
+          <t>2024-03-24 03:38:36</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4577,45 +4313,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Chair suffer ahead sound risk short low let.</t>
+          <t>Number official identify.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Emp_86</t>
+          <t>Emp_151</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Crystal Bryant</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2021-08-23</t>
-        </is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>19</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2024-01-29 00:00:00 - 2024-02-03 00:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2024-03-28 11:43:41</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
+          <t>2024-03-03 01:23:30</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4625,45 +4358,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Production entire collection box race style note.</t>
+          <t>Though defense west high suddenly employee natural.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Emp_87</t>
+          <t>Emp_151</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Michelle Garza</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>20</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2024-07-02 00:00:00 - 2024-07-09 00:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2024-03-10 21:01:28</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
+          <t>2024-01-03 21:50:39</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4673,45 +4403,42 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Down type it they choose.</t>
+          <t>Least imagine weight hit main.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Emp_88</t>
+          <t>Emp_7</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jay Moore</t>
+          <t>2024-09-08</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-18</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2021-10-25</t>
-        </is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>16</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2024-09-08 00:00:00 - 2024-09-18 00:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2024-03-22 07:08:50</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
+          <t>2024-03-14 22:10:46</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4721,45 +4448,42 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Right little worry pattern college two.</t>
+          <t>Find this rock treatment staff country.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Emp_89</t>
+          <t>Emp_53</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Randall Willis MD</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2022-06-07</t>
-        </is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2024-08-28 00:00:00 - 2024-09-02 00:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2024-03-27 06:19:54</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>2024-02-06 20:10:02</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4769,45 +4493,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Laugh ready suggest I go little sort.</t>
+          <t>Generation police most cost part relate present.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Emp_90</t>
+          <t>Emp_16</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Patricia Pierce</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>2024-01-27</t>
-        </is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2024-09-17 00:00:00 - 2024-09-24 00:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2024-01-15 02:54:42</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>2024-04-03 19:56:01</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4817,45 +4538,42 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Language own material.</t>
+          <t>Back occur local challenge prevent quite suffer.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Emp_91</t>
+          <t>Emp_31</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Randy Scott</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2020-01-12</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2020-01-19</t>
-        </is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2024-11-06 00:00:00 - 2024-11-13 00:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2024-02-17 21:56:43</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+          <t>2024-01-01 15:55:38</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4865,45 +4583,42 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Student outside floor play benefit hear.</t>
+          <t>Authority three many do although another something.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Emp_92</t>
+          <t>Emp_37</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Austin Shaffer</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>2020-04-22</t>
-        </is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>6</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2024-05-01 00:00:00 - 2024-05-07 00:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2024-02-01 12:09:21</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
+          <t>2024-02-24 17:56:16</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4913,45 +4628,42 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Successful organization will participant treatment else example.</t>
+          <t>Step car conference more American soldier college.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Emp_93</t>
+          <t>Emp_98</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Kelly Evans</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>29</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2024-12-13 00:00:00 - 2024-12-23 00:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2024-04-01 18:49:22</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>2024-02-01 01:30:08</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4961,45 +4673,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Culture garden lose exist indicate hit.</t>
+          <t>Democratic charge prevent everyone become about mother.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Emp_94</t>
+          <t>Emp_39</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Adrian Marsh</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2020-05-30</t>
-        </is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>39</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2024-04-11 00:00:00 - 2024-04-16 00:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2024-01-20 22:18:03</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
+          <t>2024-02-05 22:35:49</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5009,45 +4718,42 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Impact will take.</t>
+          <t>Ten list position stay address scene.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Emp_95</t>
+          <t>Emp_153</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ariel Hall</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-03-30</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2021-04-04</t>
-        </is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>11</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2024-06-21 00:00:00 - 2024-07-01 00:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2024-01-29 16:11:27</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
+          <t>2024-03-13 22:58:46</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5057,45 +4763,42 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Describe next remain push.</t>
+          <t>Development modern from program.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Emp_96</t>
+          <t>Emp_200</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>April Spencer</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2022-12-27</t>
-        </is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>29</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2024-01-28 00:00:00 - 2024-02-06 00:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2024-01-17 17:04:56</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>2024-03-28 22:56:54</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5105,45 +4808,42 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>These style community happen lawyer media green.</t>
+          <t>Member body hot music.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Emp_97</t>
+          <t>Emp_39</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Emma Arnold</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-01-03</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>2021-01-13</t>
-        </is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>33</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2024-07-19 00:00:00 - 2024-07-25 00:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2024-01-08 08:05:09</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>2024-02-04 23:11:42</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5153,45 +4853,42 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Education mean space house morning.</t>
+          <t>Land particular court church every onto ago.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Emp_98</t>
+          <t>Emp_90</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>James Harrington</t>
+          <t>2024-06-09</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2021-09-22</t>
-        </is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>11</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>2024-06-09 00:00:00 - 2024-06-16 00:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2024-03-17 18:52:13</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>2024-04-07 01:51:44</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5201,86 +4898,41 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>This less night hour financial west chair.</t>
+          <t>Good young operation imagine.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Emp_99</t>
+          <t>Emp_112</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>David Johnson</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>2022-07-01</t>
-        </is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>24</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2024-04-13 00:00:00 - 2024-04-20 00:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2024-03-16 21:28:41</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Training_121</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>DBT</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>frfefserrer</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Emp_1000</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>dfrfee</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="G101" s="2" t="n">
-        <v>45409</v>
-      </c>
-      <c r="H101" t="n">
-        <v>20</v>
-      </c>
-      <c r="I101" s="2" t="n">
-        <v>45386.31138303241</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
+          <t>2024-03-30 07:36:15</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/trainings_data.xlsx
+++ b/backend/trainings_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,40 +488,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bar happen poor hold strategy race.</t>
+          <t>Information by nature.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emp_162</t>
+          <t>Emp_109</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-05-12</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-05-12 00:00:00 - 2024-05-17 00:00:00</t>
+          <t>2024-11-30 00:00:00 - 2024-12-05 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-02-19 20:13:21</t>
+          <t>2024-02-22 01:09:47</t>
         </is>
       </c>
     </row>
@@ -533,40 +533,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Power this through.</t>
+          <t>Democratic building kind owner.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emp_171</t>
+          <t>Emp_129</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-06-08</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024-06-08 00:00:00 - 2024-06-17 00:00:00</t>
+          <t>2023-12-22 00:00:00 - 2023-12-31 00:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-01-11 15:10:36</t>
+          <t>2024-03-17 06:04:07</t>
         </is>
       </c>
     </row>
@@ -583,35 +583,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Detail thousand office blood herself involve food protect.</t>
+          <t>Help operation capital unit song development.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Emp_135</t>
+          <t>Emp_111</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024-12-03 00:00:00 - 2024-12-11 00:00:00</t>
+          <t>2024-01-27 00:00:00 - 2024-02-05 00:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-03-22 00:28:39</t>
+          <t>2024-01-15 18:24:22</t>
         </is>
       </c>
     </row>
@@ -623,27 +623,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Produce seek face yeah cup order.</t>
+          <t>Number never game great exactly.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Emp_171</t>
+          <t>Emp_121</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -651,12 +651,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-08-06 00:00:00 - 2024-08-13 00:00:00</t>
+          <t>2023-12-11 00:00:00 - 2023-12-20 00:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-03-29 22:32:03</t>
+          <t>2024-02-15 18:13:24</t>
         </is>
       </c>
     </row>
@@ -673,35 +673,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Piece identify south see hospital after drive allow.</t>
+          <t>Nature tell street.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Emp_188</t>
+          <t>Emp_93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2023-10-14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-03-11 00:00:00 - 2024-03-20 00:00:00</t>
+          <t>2023-10-14 00:00:00 - 2023-10-23 00:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-01-03 22:01:24</t>
+          <t>2024-02-20 00:09:13</t>
         </is>
       </c>
     </row>
@@ -713,40 +713,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Out thought entire teach close mention data.</t>
+          <t>Yes either recognize throughout like skill international realize.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Emp_164</t>
+          <t>Emp_96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-01-20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2024-12-03 00:00:00 - 2024-12-10 00:00:00</t>
+          <t>2024-01-20 00:00:00 - 2024-01-26 00:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-03-04 23:23:36</t>
+          <t>2024-04-05 20:10:02</t>
         </is>
       </c>
     </row>
@@ -758,40 +758,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Race fine tough then ahead look father finish.</t>
+          <t>Expert mouth identify scientist whatever listen evidence.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Emp_147</t>
+          <t>Emp_27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2024-02-04 00:00:00 - 2024-02-12 00:00:00</t>
+          <t>2023-08-18 00:00:00 - 2023-08-25 00:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-02-20 09:45:42</t>
+          <t>2024-02-09 23:12:52</t>
         </is>
       </c>
     </row>
@@ -803,40 +803,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Partner hair structure nice.</t>
+          <t>Produce nice important star get.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Emp_133</t>
+          <t>Emp_7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2023-12-24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2023-12-30</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024-05-02 00:00:00 - 2024-05-10 00:00:00</t>
+          <t>2023-12-24 00:00:00 - 2023-12-30 00:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-02-28 16:41:42</t>
+          <t>2024-03-30 19:43:45</t>
         </is>
       </c>
     </row>
@@ -848,40 +848,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Later size avoid PM tree.</t>
+          <t>Explain affect own produce step power general.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Emp_52</t>
+          <t>Emp_162</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2024-06-10 00:00:00 - 2024-06-18 00:00:00</t>
+          <t>2024-09-15 00:00:00 - 2024-09-23 00:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-01-28 19:38:37</t>
+          <t>2024-03-24 17:58:22</t>
         </is>
       </c>
     </row>
@@ -893,40 +893,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Author center feeling newspaper reflect.</t>
+          <t>Country fish physical card perhaps.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Emp_9</t>
+          <t>Emp_131</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2024-05-14 00:00:00 - 2024-05-22 00:00:00</t>
+          <t>2023-08-21 00:00:00 - 2023-08-27 00:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-01-03 12:04:58</t>
+          <t>2024-01-02 10:23:26</t>
         </is>
       </c>
     </row>
@@ -938,40 +938,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sport management its walk image.</t>
+          <t>Take to medical catch role cup.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Emp_66</t>
+          <t>Emp_173</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2024-11-27 00:00:00 - 2024-12-05 00:00:00</t>
+          <t>2024-08-14 00:00:00 - 2024-08-20 00:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-02-13 02:32:47</t>
+          <t>2024-01-30 15:53:41</t>
         </is>
       </c>
     </row>
@@ -983,40 +983,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Perhaps good pretty when shoulder above office.</t>
+          <t>Girl what since three national right safe.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Emp_129</t>
+          <t>Emp_191</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024-06-12 00:00:00 - 2024-06-21 00:00:00</t>
+          <t>2024-08-19 00:00:00 - 2024-08-24 00:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-01-26 12:46:29</t>
+          <t>2024-02-04 09:51:05</t>
         </is>
       </c>
     </row>
@@ -1028,40 +1028,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Test skill player probably weight Mr test.</t>
+          <t>Skill white general.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Emp_84</t>
+          <t>Emp_131</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-10-26</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-01-29 00:00:00 - 2024-02-08 00:00:00</t>
+          <t>2024-10-26 00:00:00 - 2024-11-05 00:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-01-07 04:27:11</t>
+          <t>2024-03-29 12:08:22</t>
         </is>
       </c>
     </row>
@@ -1073,40 +1073,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Out opportunity treatment those.</t>
+          <t>Option continue beyond commercial rate store check.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Emp_93</t>
+          <t>Emp_139</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-06-18 00:00:00 - 2024-06-27 00:00:00</t>
+          <t>2024-10-23 00:00:00 - 2024-10-29 00:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-02-22 14:38:23</t>
+          <t>2024-03-15 12:57:56</t>
         </is>
       </c>
     </row>
@@ -1118,40 +1118,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>At vote happen.</t>
+          <t>Near card it may.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Emp_195</t>
+          <t>Emp_59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024-02-01 00:00:00 - 2024-02-10 00:00:00</t>
+          <t>2024-09-20 00:00:00 - 2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-03-30 14:42:48</t>
+          <t>2024-03-29 13:15:48</t>
         </is>
       </c>
     </row>
@@ -1163,40 +1163,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Close push sea loss because.</t>
+          <t>You hundred week off see town.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Emp_21</t>
+          <t>Emp_71</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024-08-14 00:00:00 - 2024-08-22 00:00:00</t>
+          <t>2024-04-15 00:00:00 - 2024-04-24 00:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-03-31 12:09:20</t>
+          <t>2024-02-02 05:54:26</t>
         </is>
       </c>
     </row>
@@ -1208,40 +1208,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Son natural phone factor.</t>
+          <t>Here foot body hard.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Emp_158</t>
+          <t>Emp_199</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2024-05-03 00:00:00 - 2024-05-09 00:00:00</t>
+          <t>2024-03-19 00:00:00 - 2024-03-25 00:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-03-21 01:49:53</t>
+          <t>2024-02-26 03:47:40</t>
         </is>
       </c>
     </row>
@@ -1253,40 +1253,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Behind my talk defense green amount do yet.</t>
+          <t>Well chance together man.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Emp_118</t>
+          <t>Emp_70</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2024-03-16 00:00:00 - 2024-03-25 00:00:00</t>
+          <t>2024-07-26 00:00:00 - 2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-03-21 04:30:36</t>
+          <t>2024-03-06 16:24:24</t>
         </is>
       </c>
     </row>
@@ -1298,40 +1298,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Short none least chance street firm ago wall.</t>
+          <t>Argue deal carry only.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Emp_53</t>
+          <t>Emp_52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-12-01 00:00:00 - 2024-12-09 00:00:00</t>
+          <t>2024-03-12 00:00:00 - 2024-03-21 00:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-03-31 07:14:40</t>
+          <t>2024-01-23 22:46:11</t>
         </is>
       </c>
     </row>
@@ -1343,40 +1343,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Work relationship indicate or at and again.</t>
+          <t>Together add these.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Emp_38</t>
+          <t>Emp_195</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-12-26 00:00:00 - 2024-12-31 00:00:00</t>
+          <t>2024-02-19 00:00:00 - 2024-02-28 00:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-03-23 17:34:35</t>
+          <t>2024-03-19 09:37:06</t>
         </is>
       </c>
     </row>
@@ -1388,40 +1388,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Recognize us win coach nor church.</t>
+          <t>Let mission prevent never respond huge assume.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Emp_136</t>
+          <t>Emp_43</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2023-11-18</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-02-02 00:00:00 - 2024-02-07 00:00:00</t>
+          <t>2023-11-08 00:00:00 - 2023-11-18 00:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-01-30 10:42:26</t>
+          <t>2024-02-14 12:13:35</t>
         </is>
       </c>
     </row>
@@ -1433,27 +1433,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Education condition how find relationship nature build.</t>
+          <t>Spring road start expert.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Emp_186</t>
+          <t>Emp_21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-02-04 00:00:00 - 2024-02-14 00:00:00</t>
+          <t>2024-11-28 00:00:00 - 2024-12-06 00:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-03-23 11:45:45</t>
+          <t>2024-01-16 08:52:42</t>
         </is>
       </c>
     </row>
@@ -1478,40 +1478,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cut town care front.</t>
+          <t>Anything firm participant painting night good certain theory.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Emp_15</t>
+          <t>Emp_138</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-04-04 00:00:00 - 2024-04-11 00:00:00</t>
+          <t>2024-09-03 00:00:00 - 2024-09-10 00:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-01-29 19:23:47</t>
+          <t>2024-02-14 16:14:11</t>
         </is>
       </c>
     </row>
@@ -1523,40 +1523,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Have phone direction Mrs capital.</t>
+          <t>Describe no white exactly.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Emp_166</t>
+          <t>Emp_124</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024-09-01 00:00:00 - 2024-09-08 00:00:00</t>
+          <t>2024-03-06 00:00:00 - 2024-03-11 00:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-03-25 03:18:44</t>
+          <t>2024-03-15 19:08:59</t>
         </is>
       </c>
     </row>
@@ -1568,40 +1568,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>About heart population enough network find forget cold.</t>
+          <t>Former arrive establish wrong animal Democrat certainly meeting.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Emp_42</t>
+          <t>Emp_192</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024-11-05 00:00:00 - 2024-11-15 00:00:00</t>
+          <t>2024-08-28 00:00:00 - 2024-09-06 00:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-01-11 16:20:34</t>
+          <t>2024-03-04 06:22:12</t>
         </is>
       </c>
     </row>
@@ -1613,40 +1613,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Finish black husband about good.</t>
+          <t>Data money listen.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Emp_198</t>
+          <t>Emp_133</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-10-01 00:00:00 - 2024-10-06 00:00:00</t>
+          <t>2024-10-25 00:00:00 - 2024-11-01 00:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-01-27 00:00:50</t>
+          <t>2024-03-31 19:55:44</t>
         </is>
       </c>
     </row>
@@ -1663,35 +1663,35 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Minute success right tough.</t>
+          <t>Western those table.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emp_171</t>
+          <t>Emp_118</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024-05-02 00:00:00 - 2024-05-07 00:00:00</t>
+          <t>2024-09-12 00:00:00 - 2024-09-17 00:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-02-18 00:18:45</t>
+          <t>2024-01-01 02:44:01</t>
         </is>
       </c>
     </row>
@@ -1703,40 +1703,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Himself involve chance.</t>
+          <t>Who church center kitchen.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Emp_3</t>
+          <t>Emp_24</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2024-02-02 00:00:00 - 2024-02-12 00:00:00</t>
+          <t>2024-11-06 00:00:00 - 2024-11-12 00:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-03-31 05:11:28</t>
+          <t>2024-02-25 06:44:31</t>
         </is>
       </c>
     </row>
@@ -1748,40 +1748,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Impact early benefit whatever rock be this.</t>
+          <t>Affect attorney growth blue.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Emp_37</t>
+          <t>Emp_35</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-06-29 00:00:00 - 2024-07-06 00:00:00</t>
+          <t>2024-03-09 00:00:00 - 2024-03-17 00:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-02-25 00:25:55</t>
+          <t>2024-01-01 21:57:50</t>
         </is>
       </c>
     </row>
@@ -1798,35 +1798,35 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Measure back together arm little specific suddenly about.</t>
+          <t>Might able black meeting plan.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emp_193</t>
+          <t>Emp_156</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2024-08-29 00:00:00 - 2024-09-07 00:00:00</t>
+          <t>2024-10-31 00:00:00 - 2024-11-06 00:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-02-03 04:09:54</t>
+          <t>2024-01-03 21:18:07</t>
         </is>
       </c>
     </row>
@@ -1838,40 +1838,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Type two you finish.</t>
+          <t>Nation particularly very here address citizen.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Emp_68</t>
+          <t>Emp_98</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2024-05-30 00:00:00 - 2024-06-09 00:00:00</t>
+          <t>2024-10-01 00:00:00 - 2024-10-06 00:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-02-05 23:42:27</t>
+          <t>2024-03-19 02:40:18</t>
         </is>
       </c>
     </row>
@@ -1883,40 +1883,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Option drug side.</t>
+          <t>Interest single production any officer the.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Emp_152</t>
+          <t>Emp_126</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2024-01-03 00:00:00 - 2024-01-10 00:00:00</t>
+          <t>2023-12-12 00:00:00 - 2023-12-18 00:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-03-22 11:49:38</t>
+          <t>2024-02-29 15:41:40</t>
         </is>
       </c>
     </row>
@@ -1928,40 +1928,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trip ready again soon store system financial.</t>
+          <t>Return international either all year.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Emp_114</t>
+          <t>Emp_163</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00:00 - 2024-10-31 00:00:00</t>
+          <t>2024-09-25 00:00:00 - 2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-01-22 04:24:52</t>
+          <t>2024-01-29 02:16:49</t>
         </is>
       </c>
     </row>
@@ -1973,40 +1973,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Economy visit anything.</t>
+          <t>Media up return social particularly image include.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Emp_20</t>
+          <t>Emp_104</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2024-09-20 00:00:00 - 2024-09-27 00:00:00</t>
+          <t>2023-08-11 00:00:00 - 2023-08-17 00:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-02-12 19:18:43</t>
+          <t>2024-01-10 19:13:18</t>
         </is>
       </c>
     </row>
@@ -2018,40 +2018,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>National wind kitchen pay range image increase.</t>
+          <t>Customer low better once fact.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Emp_181</t>
+          <t>Emp_93</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2024-09-02 00:00:00 - 2024-09-07 00:00:00</t>
+          <t>2024-11-05 00:00:00 - 2024-11-13 00:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-02-19 00:24:50</t>
+          <t>2024-04-02 04:47:09</t>
         </is>
       </c>
     </row>
@@ -2063,40 +2063,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Address bag there heavy.</t>
+          <t>Government maintain onto staff air ground tonight.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emp_73</t>
+          <t>Emp_68</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2023-06-09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2024-12-08 00:00:00 - 2024-12-13 00:00:00</t>
+          <t>2023-06-09 00:00:00 - 2023-06-14 00:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-02-25 06:03:46</t>
+          <t>2024-02-22 06:09:24</t>
         </is>
       </c>
     </row>
@@ -2108,40 +2108,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Report international concern religious camera.</t>
+          <t>General want remain.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Emp_133</t>
+          <t>Emp_115</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2024-02-10 00:00:00 - 2024-02-16 00:00:00</t>
+          <t>2024-10-05 00:00:00 - 2024-10-10 00:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-03-05 01:07:06</t>
+          <t>2024-02-15 16:35:00</t>
         </is>
       </c>
     </row>
@@ -2153,40 +2153,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hit old upon national.</t>
+          <t>Leader film statement particularly.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Emp_42</t>
+          <t>Emp_143</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2024-03-07 00:00:00 - 2024-03-16 00:00:00</t>
+          <t>2024-09-02 00:00:00 - 2024-09-11 00:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-02-12 12:37:59</t>
+          <t>2024-02-06 16:56:13</t>
         </is>
       </c>
     </row>
@@ -2198,40 +2198,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Out sport mean rock.</t>
+          <t>Know which without too unit open.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Emp_20</t>
+          <t>Emp_94</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2024-11-06 00:00:00 - 2024-11-11 00:00:00</t>
+          <t>2024-10-28 00:00:00 - 2024-11-07 00:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-04-06 06:00:38</t>
+          <t>2024-03-31 21:47:17</t>
         </is>
       </c>
     </row>
@@ -2248,35 +2248,35 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Stock research common truth whether wait hour.</t>
+          <t>Above standard task special performance popular discussion at.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Emp_93</t>
+          <t>Emp_166</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-04-08 00:00:00 - 2024-04-18 00:00:00</t>
+          <t>2023-12-28 00:00:00 - 2024-01-02 00:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-01-26 03:15:50</t>
+          <t>2024-01-24 20:12:59</t>
         </is>
       </c>
     </row>
@@ -2288,40 +2288,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hot front interesting stand heavy we wait out.</t>
+          <t>Across head defense continue.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Emp_180</t>
+          <t>Emp_52</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2024-03-01 00:00:00 - 2024-03-08 00:00:00</t>
+          <t>2024-12-27 00:00:00 - 2025-01-03 00:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-02-25 13:04:25</t>
+          <t>2024-03-10 12:21:48</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Leg bar star case drive choice.</t>
+          <t>Girl group student better physical.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Emp_136</t>
+          <t>Emp_196</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2024-07-19 00:00:00 - 2024-07-26 00:00:00</t>
+          <t>2024-10-18 00:00:00 - 2024-10-25 00:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-02-06 04:17:30</t>
+          <t>2024-03-13 02:54:27</t>
         </is>
       </c>
     </row>
@@ -2378,40 +2378,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Case near law likely drive change amount miss.</t>
+          <t>By rich goal.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Emp_57</t>
+          <t>Emp_4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2024-12-21 00:00:00 - 2024-12-28 00:00:00</t>
+          <t>2023-07-08 00:00:00 - 2023-07-18 00:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-01-31 15:26:41</t>
+          <t>2024-02-28 04:08:31</t>
         </is>
       </c>
     </row>
@@ -2423,40 +2423,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Specific join blue data my.</t>
+          <t>Activity head learn fight this discover.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Emp_97</t>
+          <t>Emp_186</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2024-09-02 00:00:00 - 2024-09-07 00:00:00</t>
+          <t>2024-12-09 00:00:00 - 2024-12-14 00:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-01-15 18:12:38</t>
+          <t>2024-01-09 11:08:54</t>
         </is>
       </c>
     </row>
@@ -2468,40 +2468,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Product produce many parent trip moment.</t>
+          <t>Bill professional camera look.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Emp_43</t>
+          <t>Emp_48</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2024-03-31 00:00:00 - 2024-04-06 00:00:00</t>
+          <t>2024-10-11 00:00:00 - 2024-10-18 00:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-02-14 08:52:30</t>
+          <t>2024-02-11 00:39:32</t>
         </is>
       </c>
     </row>
@@ -2513,40 +2513,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Each professional sure do.</t>
+          <t>Law effect case culture light event part identify.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Emp_193</t>
+          <t>Emp_28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2024-08-11 00:00:00 - 2024-08-19 00:00:00</t>
+          <t>2024-08-12 00:00:00 - 2024-08-17 00:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-02-09 16:01:24</t>
+          <t>2024-03-28 13:11:18</t>
         </is>
       </c>
     </row>
@@ -2558,40 +2558,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Use state yeah late education mind apply.</t>
+          <t>Position road consumer admit company Congress picture.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Emp_179</t>
+          <t>Emp_167</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2024-06-21 00:00:00 - 2024-06-27 00:00:00</t>
+          <t>2024-01-23 00:00:00 - 2024-02-02 00:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-01-18 22:46:28</t>
+          <t>2024-04-04 06:40:41</t>
         </is>
       </c>
     </row>
@@ -2603,40 +2603,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Follow near read car respond.</t>
+          <t>Beyond without west.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Emp_189</t>
+          <t>Emp_129</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2024-10-01 00:00:00 - 2024-10-07 00:00:00</t>
+          <t>2024-09-22 00:00:00 - 2024-10-02 00:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-01-24 23:01:54</t>
+          <t>2024-04-04 13:01:53</t>
         </is>
       </c>
     </row>
@@ -2653,35 +2653,35 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Political happy responsibility move once air remain.</t>
+          <t>Finally talk produce tend shake style rate.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Emp_46</t>
+          <t>Emp_184</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-07-03 00:00:00 - 2024-07-12 00:00:00</t>
+          <t>2023-08-16 00:00:00 - 2023-08-24 00:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-02-17 18:32:27</t>
+          <t>2024-03-12 18:58:33</t>
         </is>
       </c>
     </row>
@@ -2693,40 +2693,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Music majority pass man today right.</t>
+          <t>When choice then commercial.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Emp_51</t>
+          <t>Emp_69</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2024-07-18 00:00:00 - 2024-07-28 00:00:00</t>
+          <t>2024-06-29 00:00:00 - 2024-07-05 00:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-04-07 01:16:50</t>
+          <t>2024-01-23 01:30:50</t>
         </is>
       </c>
     </row>
@@ -2738,40 +2738,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Debate meet conference send land entire agree.</t>
+          <t>Green never reach peace.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Emp_12</t>
+          <t>Emp_138</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2024-02-29 00:00:00 - 2024-03-07 00:00:00</t>
+          <t>2024-08-21 00:00:00 - 2024-08-26 00:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2024-01-05 07:15:27</t>
+          <t>2024-01-25 10:42:29</t>
         </is>
       </c>
     </row>
@@ -2788,35 +2788,35 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Since space such floor push story.</t>
+          <t>Care black across cover international figure often.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Emp_146</t>
+          <t>Emp_47</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2024-01-19 00:00:00 - 2024-01-26 00:00:00</t>
+          <t>2023-09-03 00:00:00 - 2023-09-10 00:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2024-03-18 20:20:04</t>
+          <t>2024-02-11 02:28:29</t>
         </is>
       </c>
     </row>
@@ -2828,40 +2828,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Class teacher state call customer remember court sense.</t>
+          <t>Any professional sing whom.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Emp_104</t>
+          <t>Emp_109</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2024-11-08 00:00:00 - 2024-11-16 00:00:00</t>
+          <t>2023-12-09 00:00:00 - 2023-12-14 00:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2024-01-21 19:50:47</t>
+          <t>2024-02-08 11:41:41</t>
         </is>
       </c>
     </row>
@@ -2873,40 +2873,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Practice throw use statement reason no find.</t>
+          <t>Civil responsibility population hope civil nearly.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Emp_39</t>
+          <t>Emp_33</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2024-09-09 00:00:00 - 2024-09-15 00:00:00</t>
+          <t>2023-09-28 00:00:00 - 2023-10-06 00:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2024-03-25 11:08:11</t>
+          <t>2024-03-24 17:43:37</t>
         </is>
       </c>
     </row>
@@ -2918,40 +2918,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Condition race you positive thus.</t>
+          <t>Month choose soldier scene chair although space.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Emp_128</t>
+          <t>Emp_109</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2024-06-16 00:00:00 - 2024-06-23 00:00:00</t>
+          <t>2023-11-27 00:00:00 - 2023-12-06 00:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2024-02-23 03:41:24</t>
+          <t>2024-01-03 03:33:00</t>
         </is>
       </c>
     </row>
@@ -2963,40 +2963,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Charge tell guess garden second own prevent.</t>
+          <t>Four travel six citizen easy.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Emp_14</t>
+          <t>Emp_118</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2024-10-15 00:00:00 - 2024-10-23 00:00:00</t>
+          <t>2024-05-10 00:00:00 - 2024-05-17 00:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2024-02-25 21:07:55</t>
+          <t>2024-02-28 08:24:47</t>
         </is>
       </c>
     </row>
@@ -3013,35 +3013,35 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Forward institution between agent.</t>
+          <t>Despite agent major race.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Emp_16</t>
+          <t>Emp_11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024-04-14</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2024-04-04 00:00:00 - 2024-04-14 00:00:00</t>
+          <t>2024-10-04 00:00:00 - 2024-10-10 00:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2024-03-18 05:27:31</t>
+          <t>2024-03-18 13:15:08</t>
         </is>
       </c>
     </row>
@@ -3053,40 +3053,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Present current sing main animal.</t>
+          <t>Task window street five political school concern.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Emp_103</t>
+          <t>Emp_134</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-05-11 00:00:00 - 2024-05-18 00:00:00</t>
+          <t>2024-05-23 00:00:00 - 2024-06-01 00:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2024-03-20 21:05:51</t>
+          <t>2024-01-02 17:19:52</t>
         </is>
       </c>
     </row>
@@ -3098,40 +3098,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Discuss late continue employee fear tonight.</t>
+          <t>Understand event prepare institution drug media.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Emp_20</t>
+          <t>Emp_29</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2024-03-16 00:00:00 - 2024-03-22 00:00:00</t>
+          <t>2023-08-15 00:00:00 - 2023-08-20 00:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2024-03-05 04:17:48</t>
+          <t>2024-03-29 19:41:42</t>
         </is>
       </c>
     </row>
@@ -3143,40 +3143,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Drive exist ahead over consumer city resource onto.</t>
+          <t>Picture finally bill.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Emp_33</t>
+          <t>Emp_180</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2024-07-20 00:00:00 - 2024-07-26 00:00:00</t>
+          <t>2024-10-09 00:00:00 - 2024-10-17 00:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2024-02-24 01:28:01</t>
+          <t>2024-03-22 23:04:01</t>
         </is>
       </c>
     </row>
@@ -3188,40 +3188,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>President you gas until raise with much.</t>
+          <t>Onto speech he production author institution choice.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Emp_11</t>
+          <t>Emp_16</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-06-08</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2024-10-10 00:00:00 - 2024-10-19 00:00:00</t>
+          <t>2024-06-03 00:00:00 - 2024-06-08 00:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2024-04-02 15:07:07</t>
+          <t>2024-04-03 12:02:24</t>
         </is>
       </c>
     </row>
@@ -3233,40 +3233,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Item huge rest.</t>
+          <t>Loss understand eight able.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Emp_89</t>
+          <t>Emp_66</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2023-06-16</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2024-03-10 00:00:00 - 2024-03-19 00:00:00</t>
+          <t>2023-06-11 00:00:00 - 2023-06-16 00:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2024-03-04 00:17:01</t>
+          <t>2024-03-16 03:16:29</t>
         </is>
       </c>
     </row>
@@ -3278,40 +3278,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Something first simple this everything modern also.</t>
+          <t>Recognize single seat industry.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Emp_92</t>
+          <t>Emp_77</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00:00 - 2024-10-29 00:00:00</t>
+          <t>2023-11-03 00:00:00 - 2023-11-08 00:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2024-01-03 01:06:30</t>
+          <t>2024-02-20 07:45:04</t>
         </is>
       </c>
     </row>
@@ -3323,40 +3323,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Herself would draw interview agreement politics article.</t>
+          <t>Ten maybe simply forget.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Emp_8</t>
+          <t>Emp_119</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2024-06-02 00:00:00 - 2024-06-11 00:00:00</t>
+          <t>2024-03-02 00:00:00 - 2024-03-10 00:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2024-03-14 22:16:13</t>
+          <t>2024-01-26 23:52:08</t>
         </is>
       </c>
     </row>
@@ -3368,40 +3368,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Attorney expect event its.</t>
+          <t>Benefit music positive space arm music interview.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Emp_77</t>
+          <t>Emp_121</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2024-02-20 00:00:00 - 2024-02-26 00:00:00</t>
+          <t>2024-03-14 00:00:00 - 2024-03-20 00:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2024-02-07 05:42:12</t>
+          <t>2024-01-03 22:35:10</t>
         </is>
       </c>
     </row>
@@ -3418,35 +3418,35 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Now everybody road ok member people.</t>
+          <t>Yard often clearly already side space.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Emp_77</t>
+          <t>Emp_136</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2024-01-15 00:00:00 - 2024-01-20 00:00:00</t>
+          <t>2023-06-21 00:00:00 - 2023-06-30 00:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2024-01-07 23:13:29</t>
+          <t>2024-04-01 23:00:54</t>
         </is>
       </c>
     </row>
@@ -3458,40 +3458,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Defense stay hundred reveal knowledge when source capital.</t>
+          <t>Sense feeling new while west energy less.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Emp_16</t>
+          <t>Emp_187</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2024-07-05 00:00:00 - 2024-07-12 00:00:00</t>
+          <t>2024-01-30 00:00:00 - 2024-02-07 00:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2024-01-11 05:25:58</t>
+          <t>2024-02-18 10:44:54</t>
         </is>
       </c>
     </row>
@@ -3508,35 +3508,35 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Push serve room it but maybe poor.</t>
+          <t>Measure along better near.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Emp_136</t>
+          <t>Emp_175</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2024-08-16 00:00:00 - 2024-08-25 00:00:00</t>
+          <t>2024-11-23 00:00:00 - 2024-12-01 00:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2024-01-15 14:50:36</t>
+          <t>2024-01-29 04:22:20</t>
         </is>
       </c>
     </row>
@@ -3548,40 +3548,40 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Clear fly adult later certainly family argue.</t>
+          <t>Business goal view least operation key.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Emp_18</t>
+          <t>Emp_132</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2024-03-29 00:00:00 - 2024-04-03 00:00:00</t>
+          <t>2023-10-31 00:00:00 - 2023-11-08 00:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2024-03-16 15:27:21</t>
+          <t>2024-01-24 20:00:29</t>
         </is>
       </c>
     </row>
@@ -3593,12 +3593,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Model race positive someone around.</t>
+          <t>Star democratic write.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3608,25 +3608,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2024-02-06 00:00:00 - 2024-02-13 00:00:00</t>
+          <t>2024-12-02 00:00:00 - 2024-12-11 00:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2024-01-26 20:52:00</t>
+          <t>2024-03-27 01:10:27</t>
         </is>
       </c>
     </row>
@@ -3638,40 +3638,40 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Remember thing product military.</t>
+          <t>Someone film weight television available daughter public somebody.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Emp_85</t>
+          <t>Emp_105</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2024-05-13 00:00:00 - 2024-05-23 00:00:00</t>
+          <t>2023-08-31 00:00:00 - 2023-09-09 00:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2024-03-03 11:03:57</t>
+          <t>2024-01-19 08:40:08</t>
         </is>
       </c>
     </row>
@@ -3683,40 +3683,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Hour technology picture.</t>
+          <t>Station side think realize.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Emp_198</t>
+          <t>Emp_17</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-10-26</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2024-08-28 00:00:00 - 2024-09-03 00:00:00</t>
+          <t>2024-10-19 00:00:00 - 2024-10-26 00:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2024-01-25 19:26:31</t>
+          <t>2024-03-20 14:07:21</t>
         </is>
       </c>
     </row>
@@ -3728,40 +3728,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Law behavior seven western.</t>
+          <t>Different fight four kitchen difficult actually.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Emp_21</t>
+          <t>Emp_126</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2024-01-24 00:00:00 - 2024-01-30 00:00:00</t>
+          <t>2023-07-06 00:00:00 - 2023-07-15 00:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2024-01-11 03:43:57</t>
+          <t>2024-01-31 20:05:51</t>
         </is>
       </c>
     </row>
@@ -3778,35 +3778,35 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Material executive work protect.</t>
+          <t>Tell magazine mean course draw risk.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Emp_28</t>
+          <t>Emp_117</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2024-12-02 00:00:00 - 2024-12-09 00:00:00</t>
+          <t>2024-02-07 00:00:00 - 2024-02-12 00:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2024-03-16 20:56:18</t>
+          <t>2024-02-17 22:40:34</t>
         </is>
       </c>
     </row>
@@ -3818,40 +3818,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Age avoid agreement health doctor act camera may.</t>
+          <t>Significant kitchen Mrs weight evidence.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Emp_21</t>
+          <t>Emp_57</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2024-12-15 00:00:00 - 2024-12-25 00:00:00</t>
+          <t>2024-02-20 00:00:00 - 2024-02-27 00:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2024-03-14 04:17:59</t>
+          <t>2024-04-07 02:11:42</t>
         </is>
       </c>
     </row>
@@ -3863,40 +3863,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>According family top kid production suffer school.</t>
+          <t>Out officer entire some.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Emp_68</t>
+          <t>Emp_132</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2024-12-23 00:00:00 - 2024-12-31 00:00:00</t>
+          <t>2024-07-10 00:00:00 - 2024-07-19 00:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2024-02-10 21:07:36</t>
+          <t>2024-02-20 00:52:58</t>
         </is>
       </c>
     </row>
@@ -3908,40 +3908,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Single member system clear human remain.</t>
+          <t>Air institution some account leg benefit past trial.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Emp_50</t>
+          <t>Emp_61</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2024-09-18 00:00:00 - 2024-09-24 00:00:00</t>
+          <t>2024-12-17 00:00:00 - 2024-12-27 00:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2024-03-09 21:24:16</t>
+          <t>2024-02-04 14:22:00</t>
         </is>
       </c>
     </row>
@@ -3958,35 +3958,35 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Around court majority result.</t>
+          <t>Window impact stage consider.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Emp_53</t>
+          <t>Emp_188</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2023-06-18</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2024-08-05 00:00:00 - 2024-08-14 00:00:00</t>
+          <t>2023-06-13 00:00:00 - 2023-06-18 00:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2024-03-23 12:35:21</t>
+          <t>2024-04-03 20:26:27</t>
         </is>
       </c>
     </row>
@@ -3998,40 +3998,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Job main cell different.</t>
+          <t>Candidate few social shoulder.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Emp_137</t>
+          <t>Emp_82</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2024-09-29 00:00:00 - 2024-10-04 00:00:00</t>
+          <t>2023-12-31 00:00:00 - 2024-01-07 00:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2024-01-23 03:02:09</t>
+          <t>2024-04-06 00:40:04</t>
         </is>
       </c>
     </row>
@@ -4043,40 +4043,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Personal life discussion article practice.</t>
+          <t>Full member tell feel central.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Emp_1</t>
+          <t>Emp_61</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2024-02-18 00:00:00 - 2024-02-27 00:00:00</t>
+          <t>2023-08-16 00:00:00 - 2023-08-21 00:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2024-03-12 19:39:13</t>
+          <t>2024-04-08 04:31:25</t>
         </is>
       </c>
     </row>
@@ -4093,22 +4093,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Manager sing teacher couple.</t>
+          <t>Manage resource career ability single price.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Emp_133</t>
+          <t>Emp_124</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -4116,12 +4116,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2024-06-21 00:00:00 - 2024-06-29 00:00:00</t>
+          <t>2024-02-07 00:00:00 - 2024-02-14 00:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2024-02-28 10:21:27</t>
+          <t>2024-03-03 20:50:13</t>
         </is>
       </c>
     </row>
@@ -4133,40 +4133,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Call mean example create run effect reason.</t>
+          <t>Dinner official such discussion.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Emp_200</t>
+          <t>Emp_112</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2023-11-12</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-11-17</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2024-06-17 00:00:00 - 2024-06-24 00:00:00</t>
+          <t>2023-11-12 00:00:00 - 2023-11-17 00:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2024-02-28 17:43:29</t>
+          <t>2024-02-12 08:51:48</t>
         </is>
       </c>
     </row>
@@ -4178,40 +4178,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cup single career office bit stop we.</t>
+          <t>Few win miss become street they as.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Emp_191</t>
+          <t>Emp_79</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2024-12-19 00:00:00 - 2024-12-29 00:00:00</t>
+          <t>2023-06-23 00:00:00 - 2023-06-28 00:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2024-01-01 16:57:23</t>
+          <t>2024-03-20 13:01:21</t>
         </is>
       </c>
     </row>
@@ -4223,40 +4223,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mrs parent reason summer play camera forward.</t>
+          <t>Loss hot rule well floor.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Emp_163</t>
+          <t>Emp_56</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2024-07-03 00:00:00 - 2024-07-11 00:00:00</t>
+          <t>2023-10-06 00:00:00 - 2023-10-12 00:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2024-02-03 13:13:50</t>
+          <t>2024-02-24 03:12:48</t>
         </is>
       </c>
     </row>
@@ -4268,40 +4268,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Southern until every table.</t>
+          <t>Actually concern case.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Emp_35</t>
+          <t>Emp_36</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2024-11-16 00:00:00 - 2024-11-21 00:00:00</t>
+          <t>2023-09-10 00:00:00 - 2023-09-16 00:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2024-03-24 03:38:36</t>
+          <t>2024-02-22 23:33:40</t>
         </is>
       </c>
     </row>
@@ -4313,40 +4313,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Number official identify.</t>
+          <t>Respond interview simply owner.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Emp_151</t>
+          <t>Emp_81</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2024-01-29 00:00:00 - 2024-02-03 00:00:00</t>
+          <t>2024-10-10 00:00:00 - 2024-10-18 00:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2024-03-03 01:23:30</t>
+          <t>2024-01-01 14:15:40</t>
         </is>
       </c>
     </row>
@@ -4358,40 +4358,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Though defense west high suddenly employee natural.</t>
+          <t>Suggest country against around popular whether exactly.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Emp_151</t>
+          <t>Emp_49</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2024-07-02 00:00:00 - 2024-07-09 00:00:00</t>
+          <t>2024-01-27 00:00:00 - 2024-02-01 00:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2024-01-03 21:50:39</t>
+          <t>2024-03-17 02:25:00</t>
         </is>
       </c>
     </row>
@@ -4403,40 +4403,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Least imagine weight hit main.</t>
+          <t>Yes car information data place.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Emp_7</t>
+          <t>Emp_90</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2024-09-08 00:00:00 - 2024-09-18 00:00:00</t>
+          <t>2024-09-20 00:00:00 - 2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2024-03-14 22:10:46</t>
+          <t>2024-01-29 08:33:49</t>
         </is>
       </c>
     </row>
@@ -4448,40 +4448,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Find this rock treatment staff country.</t>
+          <t>Security goal medical well.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Emp_53</t>
+          <t>Emp_141</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2024-08-28 00:00:00 - 2024-09-02 00:00:00</t>
+          <t>2024-06-23 00:00:00 - 2024-07-02 00:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2024-02-06 20:10:02</t>
+          <t>2024-01-14 00:03:59</t>
         </is>
       </c>
     </row>
@@ -4493,40 +4493,40 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Generation police most cost part relate present.</t>
+          <t>Mother people media population debate.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Emp_16</t>
+          <t>Emp_6</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2023-11-23</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2024-09-17 00:00:00 - 2024-09-24 00:00:00</t>
+          <t>2023-11-23 00:00:00 - 2023-11-28 00:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2024-04-03 19:56:01</t>
+          <t>2024-03-02 11:52:25</t>
         </is>
       </c>
     </row>
@@ -4538,40 +4538,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Back occur local challenge prevent quite suffer.</t>
+          <t>Structure big space yes agreement need.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Emp_31</t>
+          <t>Emp_12</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2024-11-06 00:00:00 - 2024-11-13 00:00:00</t>
+          <t>2024-01-03 00:00:00 - 2024-01-12 00:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2024-01-01 15:55:38</t>
+          <t>2024-02-25 16:39:53</t>
         </is>
       </c>
     </row>
@@ -4583,40 +4583,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Authority three many do although another something.</t>
+          <t>Serve popular lawyer find world.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Emp_37</t>
+          <t>Emp_136</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2024-05-01 00:00:00 - 2024-05-07 00:00:00</t>
+          <t>2024-02-02 00:00:00 - 2024-02-07 00:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2024-02-24 17:56:16</t>
+          <t>2024-01-14 01:42:37</t>
         </is>
       </c>
     </row>
@@ -4628,40 +4628,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Step car conference more American soldier college.</t>
+          <t>Difficult military they material piece.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Emp_98</t>
+          <t>Emp_9</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2024-12-13 00:00:00 - 2024-12-23 00:00:00</t>
+          <t>2023-08-29 00:00:00 - 2023-09-08 00:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2024-02-01 01:30:08</t>
+          <t>2024-01-25 05:34:26</t>
         </is>
       </c>
     </row>
@@ -4673,40 +4673,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Democratic charge prevent everyone become about mother.</t>
+          <t>Say another fight.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Emp_39</t>
+          <t>Emp_167</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2024-04-11 00:00:00 - 2024-04-16 00:00:00</t>
+          <t>2024-10-29 00:00:00 - 2024-11-03 00:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2024-02-05 22:35:49</t>
+          <t>2024-02-18 16:13:23</t>
         </is>
       </c>
     </row>
@@ -4718,40 +4718,40 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ten list position stay address scene.</t>
+          <t>Sign popular forget old technology.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Emp_153</t>
+          <t>Emp_38</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2024-06-21 00:00:00 - 2024-07-01 00:00:00</t>
+          <t>2024-11-27 00:00:00 - 2024-12-04 00:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2024-03-13 22:58:46</t>
+          <t>2024-03-14 00:51:29</t>
         </is>
       </c>
     </row>
@@ -4763,40 +4763,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Development modern from program.</t>
+          <t>Same have prove without door mind.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Emp_200</t>
+          <t>Emp_93</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2024-01-28 00:00:00 - 2024-02-06 00:00:00</t>
+          <t>2024-02-29 00:00:00 - 2024-03-09 00:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2024-03-28 22:56:54</t>
+          <t>2024-04-03 16:13:19</t>
         </is>
       </c>
     </row>
@@ -4808,40 +4808,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Member body hot music.</t>
+          <t>Option still information young research reveal history behind.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Emp_39</t>
+          <t>Emp_72</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2024-07-19 00:00:00 - 2024-07-25 00:00:00</t>
+          <t>2023-06-05 00:00:00 - 2023-06-14 00:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2024-02-04 23:11:42</t>
+          <t>2024-02-03 13:49:35</t>
         </is>
       </c>
     </row>
@@ -4853,40 +4853,40 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Land particular court church every onto ago.</t>
+          <t>Congress large friend American I player.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Emp_90</t>
+          <t>Emp_58</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2024-06-09 00:00:00 - 2024-06-16 00:00:00</t>
+          <t>2023-07-09 00:00:00 - 2023-07-17 00:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2024-04-07 01:51:44</t>
+          <t>2024-03-05 17:59:40</t>
         </is>
       </c>
     </row>
@@ -4898,40 +4898,40 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Good young operation imagine.</t>
+          <t>Common on test enter.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Emp_112</t>
+          <t>Emp_146</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2024-04-20</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2024-04-13 00:00:00 - 2024-04-20 00:00:00</t>
+          <t>2024-07-20 00:00:00 - 2024-07-26 00:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2024-03-30 07:36:15</t>
+          <t>2024-01-28 05:26:05</t>
         </is>
       </c>
     </row>

--- a/backend/trainings_data.xlsx
+++ b/backend/trainings_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>trainerName</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>startDate</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>endDate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>optimizedDuration</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>timingOfTraining</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>createdAt</t>
         </is>
@@ -488,40 +493,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Information by nature.</t>
+          <t>Green study feel agree parent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emp_109</t>
+          <t>Emp_11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2024-11-30 00:00:00 - 2024-12-05 00:00:00</t>
-        </is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>34</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-02-22 01:09:47</t>
+          <t>2024-12-10 00:00:00 - 2024-12-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-01-12 09:14:21</t>
         </is>
       </c>
     </row>
@@ -533,40 +543,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Democratic building kind owner.</t>
+          <t>Amount hard conference among happy create.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emp_129</t>
+          <t>Emp_176</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>Bruce</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2023-12-22 00:00:00 - 2023-12-31 00:00:00</t>
-        </is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>35</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-03-17 06:04:07</t>
+          <t>2023-10-08 00:00:00 - 2023-10-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024-04-06 07:15:34</t>
         </is>
       </c>
     </row>
@@ -578,40 +593,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Help operation capital unit song development.</t>
+          <t>Organization memory television brother need team south course.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Emp_111</t>
+          <t>Emp_107</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2024-01-27 00:00:00 - 2024-02-05 00:00:00</t>
-        </is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-01-15 18:24:22</t>
+          <t>2024-12-15 00:00:00 - 2024-12-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-03-19 02:08:15</t>
         </is>
       </c>
     </row>
@@ -623,40 +643,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Number never game great exactly.</t>
+          <t>With social unit account too.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Emp_121</t>
+          <t>Emp_158</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>31</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2023-12-11 00:00:00 - 2023-12-20 00:00:00</t>
-        </is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>14</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-02-15 18:13:24</t>
+          <t>2023-06-14 00:00:00 - 2023-06-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-02-19 03:01:05</t>
         </is>
       </c>
     </row>
@@ -668,40 +693,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nature tell street.</t>
+          <t>Develop fish raise.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Emp_93</t>
+          <t>Emp_137</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-10-14</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2023-10-14 00:00:00 - 2023-10-23 00:00:00</t>
-        </is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-02-20 00:09:13</t>
+          <t>2023-09-15 00:00:00 - 2023-09-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024-01-31 05:42:07</t>
         </is>
       </c>
     </row>
@@ -713,40 +743,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes either recognize throughout like skill international realize.</t>
+          <t>Often I share road good will certainly.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Emp_96</t>
+          <t>Emp_21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>37</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2024-01-20 00:00:00 - 2024-01-26 00:00:00</t>
-        </is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-04-05 20:10:02</t>
+          <t>2023-06-22 00:00:00 - 2023-06-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-01-31 19:48:56</t>
         </is>
       </c>
     </row>
@@ -758,40 +793,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Expert mouth identify scientist whatever listen evidence.</t>
+          <t>War law less ago single pass.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Emp_27</t>
+          <t>Emp_3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2023-08-18 00:00:00 - 2023-08-25 00:00:00</t>
-        </is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>27</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-02-09 23:12:52</t>
+          <t>2023-12-20 00:00:00 - 2023-12-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-02-27 00:47:46</t>
         </is>
       </c>
     </row>
@@ -803,40 +843,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Produce nice important star get.</t>
+          <t>Tax chance there traditional entire.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Emp_7</t>
+          <t>Emp_144</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-12-24</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-12-30</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>29</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2023-12-24 00:00:00 - 2023-12-30 00:00:00</t>
-        </is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-03-30 19:43:45</t>
+          <t>2024-04-08 00:00:00 - 2024-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-03-09 15:18:24</t>
         </is>
       </c>
     </row>
@@ -848,40 +893,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Explain affect own produce step power general.</t>
+          <t>Catch herself and person different necessary particular.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Emp_162</t>
+          <t>Emp_71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>16</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2024-09-15 00:00:00 - 2024-09-23 00:00:00</t>
-        </is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-03-24 17:58:22</t>
+          <t>2023-09-11 00:00:00 - 2023-09-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024-01-31 16:24:08</t>
         </is>
       </c>
     </row>
@@ -893,40 +943,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Country fish physical card perhaps.</t>
+          <t>Appear to certain wind student.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Emp_131</t>
+          <t>Emp_79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2023-08-21 00:00:00 - 2023-08-27 00:00:00</t>
-        </is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>24</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-01-02 10:23:26</t>
+          <t>2024-11-01 00:00:00 - 2024-11-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2024-03-26 22:27:53</t>
         </is>
       </c>
     </row>
@@ -943,35 +998,40 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Take to medical catch role cup.</t>
+          <t>Network determine between lose food.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Emp_173</t>
+          <t>Emp_114</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>Kathleen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>30</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2024-08-14 00:00:00 - 2024-08-20 00:00:00</t>
-        </is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-01-30 15:53:41</t>
+          <t>2023-07-27 00:00:00 - 2023-08-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024-03-14 16:08:17</t>
         </is>
       </c>
     </row>
@@ -983,40 +1043,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Girl what since three national right safe.</t>
+          <t>Success form church reason wonder order.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Emp_191</t>
+          <t>Emp_19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>19</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2024-08-19 00:00:00 - 2024-08-24 00:00:00</t>
-        </is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-02-04 09:51:05</t>
+          <t>2024-02-28 00:00:00 - 2024-03-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2024-03-05 00:52:12</t>
         </is>
       </c>
     </row>
@@ -1028,40 +1093,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Skill white general.</t>
+          <t>Use off deal which ask.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Emp_131</t>
+          <t>Emp_45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>33</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2024-10-26 00:00:00 - 2024-11-05 00:00:00</t>
-        </is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-03-29 12:08:22</t>
+          <t>2023-11-07 00:00:00 - 2023-11-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2024-01-30 14:14:53</t>
         </is>
       </c>
     </row>
@@ -1073,40 +1143,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Option continue beyond commercial rate store check.</t>
+          <t>Include rather close plant.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Emp_139</t>
+          <t>Emp_114</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>Sally</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>16</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2024-10-23 00:00:00 - 2024-10-29 00:00:00</t>
-        </is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-03-15 12:57:56</t>
+          <t>2024-01-26 00:00:00 - 2024-02-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2024-02-02 17:34:40</t>
         </is>
       </c>
     </row>
@@ -1118,40 +1193,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Near card it may.</t>
+          <t>Phone sound half conference great interesting.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Emp_59</t>
+          <t>Emp_91</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>17</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2024-09-20 00:00:00 - 2024-09-30 00:00:00</t>
-        </is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>11</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-03-29 13:15:48</t>
+          <t>2024-07-24 00:00:00 - 2024-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2024-03-04 14:38:17</t>
         </is>
       </c>
     </row>
@@ -1163,40 +1243,45 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>You hundred week off see town.</t>
+          <t>Really memory lawyer specific.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Emp_71</t>
+          <t>Emp_75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00 - 2024-04-24 00:00:00</t>
-        </is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-02-02 05:54:26</t>
+          <t>2023-09-18 00:00:00 - 2023-09-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2024-01-08 08:59:44</t>
         </is>
       </c>
     </row>
@@ -1208,40 +1293,45 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Here foot body hard.</t>
+          <t>Subject morning PM garden.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Emp_199</t>
+          <t>Emp_113</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>Sierra</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>15</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2024-03-19 00:00:00 - 2024-03-25 00:00:00</t>
-        </is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-02-26 03:47:40</t>
+          <t>2024-04-19 00:00:00 - 2024-04-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2024-02-09 22:15:07</t>
         </is>
       </c>
     </row>
@@ -1253,40 +1343,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Well chance together man.</t>
+          <t>Art claim work prevent.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Emp_70</t>
+          <t>Emp_88</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>Rebekah</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>30</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2024-07-26 00:00:00 - 2024-08-02 00:00:00</t>
-        </is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>27</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-03-06 16:24:24</t>
+          <t>2024-05-31 00:00:00 - 2024-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2024-01-12 06:22:06</t>
         </is>
       </c>
     </row>
@@ -1298,40 +1393,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Argue deal carry only.</t>
+          <t>Foot recently upon property light clear young.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Emp_52</t>
+          <t>Emp_31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>David</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>13</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2024-03-12 00:00:00 - 2024-03-21 00:00:00</t>
-        </is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>29</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-01-23 22:46:11</t>
+          <t>2024-09-27 00:00:00 - 2024-10-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024-03-01 22:53:26</t>
         </is>
       </c>
     </row>
@@ -1343,40 +1443,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Together add these.</t>
+          <t>Training want care maintain.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Emp_195</t>
+          <t>Emp_77</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>11</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2024-02-19 00:00:00 - 2024-02-28 00:00:00</t>
-        </is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>32</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-03-19 09:37:06</t>
+          <t>2024-10-01 00:00:00 - 2024-10-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024-03-16 12:37:40</t>
         </is>
       </c>
     </row>
@@ -1388,40 +1493,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Let mission prevent never respond huge assume.</t>
+          <t>Avoid sign kid tough important make partner force.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Emp_43</t>
+          <t>Emp_4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023-11-18</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>27</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2023-11-08 00:00:00 - 2023-11-18 00:00:00</t>
-        </is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>16</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-02-14 12:13:35</t>
+          <t>2023-12-06 00:00:00 - 2023-12-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024-03-06 17:27:37</t>
         </is>
       </c>
     </row>
@@ -1433,40 +1543,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Spring road start expert.</t>
+          <t>Heart sometimes conference church hit.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Emp_21</t>
+          <t>Emp_88</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>33</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2024-11-28 00:00:00 - 2024-12-06 00:00:00</t>
-        </is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>29</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-01-16 08:52:42</t>
+          <t>2024-02-15 00:00:00 - 2024-02-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024-02-23 20:42:22</t>
         </is>
       </c>
     </row>
@@ -1478,40 +1593,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Anything firm participant painting night good certain theory.</t>
+          <t>Image though give stock dog onto.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Emp_138</t>
+          <t>Emp_109</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>Brandy</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>8</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2024-09-03 00:00:00 - 2024-09-10 00:00:00</t>
-        </is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-02-14 16:14:11</t>
+          <t>2024-05-27 00:00:00 - 2024-06-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024-01-16 18:34:18</t>
         </is>
       </c>
     </row>
@@ -1523,40 +1643,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Describe no white exactly.</t>
+          <t>Them onto movement writer everyone above tax matter.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Emp_124</t>
+          <t>Emp_104</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>22</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2024-03-06 00:00:00 - 2024-03-11 00:00:00</t>
-        </is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-03-15 19:08:59</t>
+          <t>2023-09-29 00:00:00 - 2023-10-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024-01-25 05:35:06</t>
         </is>
       </c>
     </row>
@@ -1568,40 +1693,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Former arrive establish wrong animal Democrat certainly meeting.</t>
+          <t>Begin remember third right than.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Emp_192</t>
+          <t>Emp_6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>23</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2024-08-28 00:00:00 - 2024-09-06 00:00:00</t>
-        </is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>14</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-03-04 06:22:12</t>
+          <t>2023-07-23 00:00:00 - 2023-08-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024-04-01 08:25:21</t>
         </is>
       </c>
     </row>
@@ -1613,40 +1743,45 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Data money listen.</t>
+          <t>Travel maintain that few.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Emp_133</t>
+          <t>Emp_178</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>Darren</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>10</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2024-10-25 00:00:00 - 2024-11-01 00:00:00</t>
-        </is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>37</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-03-31 19:55:44</t>
+          <t>2023-09-14 00:00:00 - 2023-09-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2024-01-02 08:13:13</t>
         </is>
       </c>
     </row>
@@ -1658,40 +1793,45 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Western those table.</t>
+          <t>Oil star four bank cultural.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emp_118</t>
+          <t>Emp_2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>16</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:00:00 - 2024-09-17 00:00:00</t>
-        </is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>18</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-01-01 02:44:01</t>
+          <t>2024-10-01 00:00:00 - 2024-10-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-02-22 20:54:15</t>
         </is>
       </c>
     </row>
@@ -1703,40 +1843,45 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Who church center kitchen.</t>
+          <t>Bed including tax.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Emp_24</t>
+          <t>Emp_16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>Kurt</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>24</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2024-11-06 00:00:00 - 2024-11-12 00:00:00</t>
-        </is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>32</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-02-25 06:44:31</t>
+          <t>2023-09-05 00:00:00 - 2023-09-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2024-04-02 05:54:45</t>
         </is>
       </c>
     </row>
@@ -1748,40 +1893,45 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Affect attorney growth blue.</t>
+          <t>Shake join ask difficult sense.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Emp_35</t>
+          <t>Emp_128</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>Brent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>35</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2024-03-09 00:00:00 - 2024-03-17 00:00:00</t>
-        </is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-01-01 21:57:50</t>
+          <t>2024-06-14 00:00:00 - 2024-06-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-01-27 13:29:01</t>
         </is>
       </c>
     </row>
@@ -1793,40 +1943,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Might able black meeting plan.</t>
+          <t>Recently left conference brother affect smile.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emp_156</t>
+          <t>Emp_92</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>James</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>26</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2024-10-31 00:00:00 - 2024-11-06 00:00:00</t>
-        </is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>23</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-01-03 21:18:07</t>
+          <t>2023-10-14 00:00:00 - 2023-10-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2024-02-20 02:46:02</t>
         </is>
       </c>
     </row>
@@ -1838,40 +1993,45 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nation particularly very here address citizen.</t>
+          <t>Marriage standard when.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Emp_98</t>
+          <t>Emp_61</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>16</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2024-10-01 00:00:00 - 2024-10-06 00:00:00</t>
-        </is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>31</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-03-19 02:40:18</t>
+          <t>2024-04-04 00:00:00 - 2024-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2024-03-04 10:00:48</t>
         </is>
       </c>
     </row>
@@ -1883,22 +2043,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Interest single production any officer the.</t>
+          <t>Why such involve indicate development specific.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Emp_126</t>
+          <t>Emp_15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1906,17 +2066,22 @@
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>30</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2023-12-12 00:00:00 - 2023-12-18 00:00:00</t>
-        </is>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>36</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-02-29 15:41:40</t>
+          <t>2023-12-18 00:00:00 - 2023-12-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2024-03-27 10:13:57</t>
         </is>
       </c>
     </row>
@@ -1928,40 +2093,45 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Return international either all year.</t>
+          <t>Into fact military help girl tough use many.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Emp_163</t>
+          <t>Emp_120</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>23</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2024-09-25 00:00:00 - 2024-09-30 00:00:00</t>
-        </is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>26</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-01-29 02:16:49</t>
+          <t>2024-08-03 00:00:00 - 2024-08-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2024-01-05 09:44:37</t>
         </is>
       </c>
     </row>
@@ -1973,40 +2143,45 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Media up return social particularly image include.</t>
+          <t>Without wind measure decision.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Emp_104</t>
+          <t>Emp_8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>32</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2023-08-11 00:00:00 - 2023-08-17 00:00:00</t>
-        </is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-01-10 19:13:18</t>
+          <t>2023-08-03 00:00:00 - 2023-08-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2024-03-13 07:46:09</t>
         </is>
       </c>
     </row>
@@ -2018,40 +2193,45 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Customer low better once fact.</t>
+          <t>Rock chair watch impact firm today.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Emp_93</t>
+          <t>Emp_66</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2024-11-05 00:00:00 - 2024-11-13 00:00:00</t>
-        </is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-04-02 04:47:09</t>
+          <t>2023-11-15 00:00:00 - 2023-11-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2024-02-05 06:11:50</t>
         </is>
       </c>
     </row>
@@ -2063,40 +2243,45 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Government maintain onto staff air ground tonight.</t>
+          <t>Mrs project star.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emp_68</t>
+          <t>Emp_168</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>Brendan</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>25</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2023-06-09 00:00:00 - 2023-06-14 00:00:00</t>
-        </is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>31</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-02-22 06:09:24</t>
+          <t>2023-09-17 00:00:00 - 2023-09-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2024-03-28 23:37:29</t>
         </is>
       </c>
     </row>
@@ -2108,40 +2293,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>General want remain.</t>
+          <t>Concern goal test difficult.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Emp_115</t>
+          <t>Emp_91</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2024-10-05 00:00:00 - 2024-10-10 00:00:00</t>
-        </is>
+          <t>2023-06-04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>20</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-02-15 16:35:00</t>
+          <t>2023-06-04 00:00:00 - 2023-06-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2024-04-07 13:54:57</t>
         </is>
       </c>
     </row>
@@ -2153,40 +2343,45 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Leader film statement particularly.</t>
+          <t>Last adult couple job discuss job professional.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Emp_143</t>
+          <t>Emp_151</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>37</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2024-09-02 00:00:00 - 2024-09-11 00:00:00</t>
-        </is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-02-06 16:56:13</t>
+          <t>2024-04-09 00:00:00 - 2024-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2024-02-03 12:14:05</t>
         </is>
       </c>
     </row>
@@ -2198,40 +2393,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Know which without too unit open.</t>
+          <t>Any meet husband east position.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Emp_94</t>
+          <t>Emp_20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>40</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2024-10-28 00:00:00 - 2024-11-07 00:00:00</t>
-        </is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-03-31 21:47:17</t>
+          <t>2024-04-06 00:00:00 - 2024-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2024-03-05 21:49:28</t>
         </is>
       </c>
     </row>
@@ -2243,40 +2443,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Above standard task special performance popular discussion at.</t>
+          <t>Middle before his walk.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Emp_166</t>
+          <t>Emp_23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>11</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2023-12-28 00:00:00 - 2024-01-02 00:00:00</t>
-        </is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>21</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-01-24 20:12:59</t>
+          <t>2024-07-13 00:00:00 - 2024-07-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2024-03-25 02:13:25</t>
         </is>
       </c>
     </row>
@@ -2288,40 +2493,45 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Across head defense continue.</t>
+          <t>Account outside must lot discussion bring whom bed.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Emp_52</t>
+          <t>Emp_117</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>10</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2024-12-27 00:00:00 - 2025-01-03 00:00:00</t>
-        </is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>38</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-03-10 12:21:48</t>
+          <t>2024-06-15 00:00:00 - 2024-06-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2024-03-09 03:36:37</t>
         </is>
       </c>
     </row>
@@ -2333,40 +2543,45 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Girl group student better physical.</t>
+          <t>Miss house couple population majority executive.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Emp_196</t>
+          <t>Emp_158</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>3</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2024-10-18 00:00:00 - 2024-10-25 00:00:00</t>
-        </is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>16</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-03-13 02:54:27</t>
+          <t>2023-09-08 00:00:00 - 2023-09-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2024-01-30 00:01:27</t>
         </is>
       </c>
     </row>
@@ -2378,40 +2593,45 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>By rich goal.</t>
+          <t>Far thus about administration.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Emp_4</t>
+          <t>Emp_195</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>5</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2023-07-08 00:00:00 - 2023-07-18 00:00:00</t>
-        </is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>13</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-02-28 04:08:31</t>
+          <t>2023-09-11 00:00:00 - 2023-09-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2024-01-25 12:29:57</t>
         </is>
       </c>
     </row>
@@ -2423,40 +2643,45 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Activity head learn fight this discover.</t>
+          <t>Shoulder open source together religious information worker discussion.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Emp_186</t>
+          <t>Emp_8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>3</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2024-12-09 00:00:00 - 2024-12-14 00:00:00</t>
-        </is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>18</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-01-09 11:08:54</t>
+          <t>2024-10-30 00:00:00 - 2024-11-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2024-01-20 15:24:06</t>
         </is>
       </c>
     </row>
@@ -2473,35 +2698,40 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bill professional camera look.</t>
+          <t>Name us thousand current.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Emp_48</t>
+          <t>Emp_164</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>30</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2024-10-11 00:00:00 - 2024-10-18 00:00:00</t>
-        </is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>31</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-02-11 00:39:32</t>
+          <t>2024-03-22 00:00:00 - 2024-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2024-02-16 10:30:01</t>
         </is>
       </c>
     </row>
@@ -2513,40 +2743,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Law effect case culture light event part identify.</t>
+          <t>Bit me instead administration.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Emp_28</t>
+          <t>Emp_92</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>10</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2024-08-12 00:00:00 - 2024-08-17 00:00:00</t>
-        </is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>32</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-03-28 13:11:18</t>
+          <t>2023-12-29 00:00:00 - 2024-01-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2024-02-16 06:24:08</t>
         </is>
       </c>
     </row>
@@ -2558,40 +2793,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Position road consumer admit company Congress picture.</t>
+          <t>Visit despite next phone difficult respond.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Emp_167</t>
+          <t>Emp_50</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>Derek</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>25</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2024-01-23 00:00:00 - 2024-02-02 00:00:00</t>
-        </is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-04-04 06:40:41</t>
+          <t>2023-09-26 00:00:00 - 2023-10-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2024-01-04 04:19:29</t>
         </is>
       </c>
     </row>
@@ -2608,35 +2848,40 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Beyond without west.</t>
+          <t>Assume leg style.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Emp_129</t>
+          <t>Emp_55</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>37</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2024-09-22 00:00:00 - 2024-10-02 00:00:00</t>
-        </is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>24</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-04-04 13:01:53</t>
+          <t>2024-10-24 00:00:00 - 2024-11-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2024-03-05 08:47:33</t>
         </is>
       </c>
     </row>
@@ -2648,40 +2893,45 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Finally talk produce tend shake style rate.</t>
+          <t>Thousand bit of dinner.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Emp_184</t>
+          <t>Emp_138</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>Phillip</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>17</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2023-08-16 00:00:00 - 2023-08-24 00:00:00</t>
-        </is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-03-12 18:58:33</t>
+          <t>2024-08-15 00:00:00 - 2024-08-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2024-03-21 11:46:08</t>
         </is>
       </c>
     </row>
@@ -2693,40 +2943,45 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>When choice then commercial.</t>
+          <t>Site when write least final free short.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Emp_69</t>
+          <t>Emp_22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>18</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2024-06-29 00:00:00 - 2024-07-05 00:00:00</t>
-        </is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>32</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-01-23 01:30:50</t>
+          <t>2024-04-05 00:00:00 - 2024-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2024-01-03 11:18:53</t>
         </is>
       </c>
     </row>
@@ -2738,40 +2993,45 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Green never reach peace.</t>
+          <t>Laugh position minute somebody remain present various born.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Emp_138</t>
+          <t>Emp_197</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>32</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2024-08-21 00:00:00 - 2024-08-26 00:00:00</t>
-        </is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>20</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2024-01-25 10:42:29</t>
+          <t>2023-09-08 00:00:00 - 2023-09-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2024-01-02 16:25:23</t>
         </is>
       </c>
     </row>
@@ -2783,40 +3043,45 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Care black across cover international figure often.</t>
+          <t>Include light admit water raise ability majority light.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Emp_47</t>
+          <t>Emp_139</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>20</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2023-09-03 00:00:00 - 2023-09-10 00:00:00</t>
-        </is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>23</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2024-02-11 02:28:29</t>
+          <t>2023-08-11 00:00:00 - 2023-08-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2024-01-12 19:17:24</t>
         </is>
       </c>
     </row>
@@ -2833,35 +3098,40 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Any professional sing whom.</t>
+          <t>Soon response blood partner until develop.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Emp_109</t>
+          <t>Emp_10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>4</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2023-12-09 00:00:00 - 2023-12-14 00:00:00</t>
-        </is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2024-02-08 11:41:41</t>
+          <t>2024-09-10 00:00:00 - 2024-09-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2024-02-11 05:14:05</t>
         </is>
       </c>
     </row>
@@ -2873,40 +3143,45 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Civil responsibility population hope civil nearly.</t>
+          <t>Foreign low day huge yourself respond lawyer.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Emp_33</t>
+          <t>Emp_50</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>4</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2023-09-28 00:00:00 - 2023-10-06 00:00:00</t>
-        </is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>25</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2024-03-24 17:43:37</t>
+          <t>2024-07-03 00:00:00 - 2024-07-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2024-02-04 09:03:59</t>
         </is>
       </c>
     </row>
@@ -2918,40 +3193,45 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Month choose soldier scene chair although space.</t>
+          <t>Turn seat lawyer.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Emp_109</t>
+          <t>Emp_133</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>Dakota</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>5</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2023-11-27 00:00:00 - 2023-12-06 00:00:00</t>
-        </is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2024-01-03 03:33:00</t>
+          <t>2024-11-11 00:00:00 - 2024-11-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2024-03-18 15:35:56</t>
         </is>
       </c>
     </row>
@@ -2968,35 +3248,40 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Four travel six citizen easy.</t>
+          <t>End sister career minute member.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Emp_118</t>
+          <t>Emp_162</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>15</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2024-05-10 00:00:00 - 2024-05-17 00:00:00</t>
-        </is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>20</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2024-02-28 08:24:47</t>
+          <t>2024-05-07 00:00:00 - 2024-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:12:47</t>
         </is>
       </c>
     </row>
@@ -3008,40 +3293,45 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Despite agent major race.</t>
+          <t>Board east again international arm plan by.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Emp_11</t>
+          <t>Emp_112</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>38</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2024-10-04 00:00:00 - 2024-10-10 00:00:00</t>
-        </is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>27</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2024-03-18 13:15:08</t>
+          <t>2024-01-16 00:00:00 - 2024-01-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2024-03-20 07:53:45</t>
         </is>
       </c>
     </row>
@@ -3053,40 +3343,45 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Task window street five political school concern.</t>
+          <t>Laugh support her article one feel.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Emp_134</t>
+          <t>Emp_162</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>37</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2024-05-23 00:00:00 - 2024-06-01 00:00:00</t>
-        </is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2024-01-02 17:19:52</t>
+          <t>2024-12-27 00:00:00 - 2025-01-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2024-01-27 05:09:48</t>
         </is>
       </c>
     </row>
@@ -3098,40 +3393,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Understand event prepare institution drug media.</t>
+          <t>With real participant fear.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Emp_29</t>
+          <t>Emp_169</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>28</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2023-08-15 00:00:00 - 2023-08-20 00:00:00</t>
-        </is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>24</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2024-03-29 19:41:42</t>
+          <t>2023-12-09 00:00:00 - 2023-12-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2024-03-18 20:37:13</t>
         </is>
       </c>
     </row>
@@ -3143,40 +3443,45 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Picture finally bill.</t>
+          <t>Establish whole bank return society whom.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Emp_180</t>
+          <t>Emp_136</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>Deanna</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>9</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2024-10-09 00:00:00 - 2024-10-17 00:00:00</t>
-        </is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2024-03-22 23:04:01</t>
+          <t>2024-04-26 00:00:00 - 2024-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2024-01-23 22:04:01</t>
         </is>
       </c>
     </row>
@@ -3188,40 +3493,45 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Onto speech he production author institution choice.</t>
+          <t>Pick approach area however available.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Emp_16</t>
+          <t>Emp_174</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2024-06-08</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>36</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2024-06-03 00:00:00 - 2024-06-08 00:00:00</t>
-        </is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2024-04-03 12:02:24</t>
+          <t>2024-02-22 00:00:00 - 2024-03-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2024-03-09 12:19:53</t>
         </is>
       </c>
     </row>
@@ -3233,40 +3543,45 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Loss understand eight able.</t>
+          <t>Wait painting treat stop relate.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Emp_66</t>
+          <t>Emp_89</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023-06-16</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>30</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2023-06-11 00:00:00 - 2023-06-16 00:00:00</t>
-        </is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>27</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2024-03-16 03:16:29</t>
+          <t>2024-12-19 00:00:00 - 2024-12-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2024-03-23 07:32:24</t>
         </is>
       </c>
     </row>
@@ -3278,40 +3593,45 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Recognize single seat industry.</t>
+          <t>Firm join hear three many summer wear.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Emp_77</t>
+          <t>Emp_24</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>Jared</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2023-11-03 00:00:00 - 2023-11-08 00:00:00</t>
-        </is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2024-02-20 07:45:04</t>
+          <t>2024-04-13 00:00:00 - 2024-04-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2024-03-28 21:53:30</t>
         </is>
       </c>
     </row>
@@ -3323,40 +3643,45 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ten maybe simply forget.</t>
+          <t>Economy wrong sell tend less provide he team.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Emp_119</t>
+          <t>Emp_49</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>8</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2024-03-02 00:00:00 - 2024-03-10 00:00:00</t>
-        </is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>16</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2024-01-26 23:52:08</t>
+          <t>2024-03-07 00:00:00 - 2024-03-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2024-03-25 10:08:54</t>
         </is>
       </c>
     </row>
@@ -3368,40 +3693,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Benefit music positive space arm music interview.</t>
+          <t>Close use fall glass either offer least yard.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Emp_121</t>
+          <t>Emp_191</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>32</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2024-03-14 00:00:00 - 2024-03-20 00:00:00</t>
-        </is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>26</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2024-01-03 22:35:10</t>
+          <t>2024-01-19 00:00:00 - 2024-01-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2024-03-30 09:27:03</t>
         </is>
       </c>
     </row>
@@ -3413,40 +3743,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Yard often clearly already side space.</t>
+          <t>Argue surface cut region.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Emp_136</t>
+          <t>Emp_182</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>25</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2023-06-21 00:00:00 - 2023-06-30 00:00:00</t>
-        </is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>19</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2024-04-01 23:00:54</t>
+          <t>2024-10-17 00:00:00 - 2024-10-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2024-01-18 17:57:50</t>
         </is>
       </c>
     </row>
@@ -3458,40 +3793,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sense feeling new while west energy less.</t>
+          <t>Seat the show rate.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Emp_187</t>
+          <t>Emp_121</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>19</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2024-01-30 00:00:00 - 2024-02-07 00:00:00</t>
-        </is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>29</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2024-02-18 10:44:54</t>
+          <t>2024-01-25 00:00:00 - 2024-02-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2024-01-28 09:39:42</t>
         </is>
       </c>
     </row>
@@ -3503,40 +3843,45 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Measure along better near.</t>
+          <t>Either full rule see box.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Emp_175</t>
+          <t>Emp_172</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>7</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2024-11-23 00:00:00 - 2024-12-01 00:00:00</t>
-        </is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>31</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2024-01-29 04:22:20</t>
+          <t>2024-06-29 00:00:00 - 2024-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2024-03-14 15:51:03</t>
         </is>
       </c>
     </row>
@@ -3553,35 +3898,40 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Business goal view least operation key.</t>
+          <t>Win benefit he environment man decade.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Emp_132</t>
+          <t>Emp_34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>34</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2023-10-31 00:00:00 - 2023-11-08 00:00:00</t>
-        </is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2024-01-24 20:00:29</t>
+          <t>2024-08-02 00:00:00 - 2024-08-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2024-03-17 21:35:20</t>
         </is>
       </c>
     </row>
@@ -3593,40 +3943,45 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Star democratic write.</t>
+          <t>Religious cultural rise role.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Emp_127</t>
+          <t>Emp_9</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>Mikayla</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>18</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2024-12-02 00:00:00 - 2024-12-11 00:00:00</t>
-        </is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2024-03-27 01:10:27</t>
+          <t>2023-07-13 00:00:00 - 2023-07-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2024-01-25 14:42:34</t>
         </is>
       </c>
     </row>
@@ -3638,40 +3993,45 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Someone film weight television available daughter public somebody.</t>
+          <t>High note both.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Emp_105</t>
+          <t>Emp_60</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>22</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2023-08-31 00:00:00 - 2023-09-09 00:00:00</t>
-        </is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2024-01-19 08:40:08</t>
+          <t>2024-04-12 00:00:00 - 2024-04-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2024-03-09 06:12:30</t>
         </is>
       </c>
     </row>
@@ -3683,40 +4043,45 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Station side think realize.</t>
+          <t>Score factor hospital candidate drug factor defense.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Emp_17</t>
+          <t>Emp_158</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>James</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>14</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2024-10-19 00:00:00 - 2024-10-26 00:00:00</t>
-        </is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2024-03-20 14:07:21</t>
+          <t>2023-09-19 00:00:00 - 2023-09-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2024-02-15 21:19:44</t>
         </is>
       </c>
     </row>
@@ -3728,40 +4093,45 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Different fight four kitchen difficult actually.</t>
+          <t>Activity pull everything stuff short.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Emp_126</t>
+          <t>Emp_73</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>3</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2023-07-06 00:00:00 - 2023-07-15 00:00:00</t>
-        </is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>24</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2024-01-31 20:05:51</t>
+          <t>2024-02-01 00:00:00 - 2024-02-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2024-01-15 08:43:51</t>
         </is>
       </c>
     </row>
@@ -3773,40 +4143,45 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tell magazine mean course draw risk.</t>
+          <t>Interest strong son.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Emp_117</t>
+          <t>Emp_183</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>14</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2024-02-07 00:00:00 - 2024-02-12 00:00:00</t>
-        </is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2024-02-17 22:40:34</t>
+          <t>2023-07-19 00:00:00 - 2023-07-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2024-02-26 17:51:56</t>
         </is>
       </c>
     </row>
@@ -3818,40 +4193,45 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Significant kitchen Mrs weight evidence.</t>
+          <t>Ground bank owner have ago.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Emp_57</t>
+          <t>Emp_78</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>31</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2024-02-20 00:00:00 - 2024-02-27 00:00:00</t>
-        </is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2024-04-07 02:11:42</t>
+          <t>2024-11-18 00:00:00 - 2024-11-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2024-03-17 11:09:15</t>
         </is>
       </c>
     </row>
@@ -3863,40 +4243,45 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Out officer entire some.</t>
+          <t>Sure item stay early bill.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Emp_132</t>
+          <t>Emp_2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>Autumn</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>40</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2024-07-10 00:00:00 - 2024-07-19 00:00:00</t>
-        </is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>18</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2024-02-20 00:52:58</t>
+          <t>2024-02-09 00:00:00 - 2024-02-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2024-02-07 11:52:31</t>
         </is>
       </c>
     </row>
@@ -3908,40 +4293,45 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Air institution some account leg benefit past trial.</t>
+          <t>Process plant tax choice sense hard.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Emp_61</t>
+          <t>Emp_194</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2024-12-17 00:00:00 - 2024-12-27 00:00:00</t>
-        </is>
+          <t>2023-06-16</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>38</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2024-02-04 14:22:00</t>
+          <t>2023-06-16 00:00:00 - 2023-06-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2024-03-29 01:03:44</t>
         </is>
       </c>
     </row>
@@ -3953,40 +4343,45 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Window impact stage consider.</t>
+          <t>How during authority well good.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Emp_188</t>
+          <t>Emp_164</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>40</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2023-06-13 00:00:00 - 2023-06-18 00:00:00</t>
-        </is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2024-04-03 20:26:27</t>
+          <t>2024-03-18 00:00:00 - 2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2024-04-08 06:20:35</t>
         </is>
       </c>
     </row>
@@ -3998,40 +4393,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Candidate few social shoulder.</t>
+          <t>Glass ball hospital fear our sign.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Emp_82</t>
+          <t>Emp_176</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>3</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2023-12-31 00:00:00 - 2024-01-07 00:00:00</t>
-        </is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>35</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2024-04-06 00:40:04</t>
+          <t>2023-09-19 00:00:00 - 2023-09-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2024-02-15 09:57:52</t>
         </is>
       </c>
     </row>
@@ -4043,40 +4443,45 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Full member tell feel central.</t>
+          <t>Let avoid to back consumer.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Emp_61</t>
+          <t>Emp_134</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>29</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2023-08-16 00:00:00 - 2023-08-21 00:00:00</t>
-        </is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>39</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2024-04-08 04:31:25</t>
+          <t>2023-08-04 00:00:00 - 2023-08-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2024-01-12 01:47:47</t>
         </is>
       </c>
     </row>
@@ -4088,40 +4493,45 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Manage resource career ability single price.</t>
+          <t>Character focus fine view office among especially senior.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Emp_124</t>
+          <t>Emp_36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>Bernard</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2024-02-07 00:00:00 - 2024-02-14 00:00:00</t>
-        </is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>30</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2024-03-03 20:50:13</t>
+          <t>2024-12-23 00:00:00 - 2024-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2024-02-28 17:46:14</t>
         </is>
       </c>
     </row>
@@ -4133,40 +4543,45 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dinner official such discussion.</t>
+          <t>Wrong another center reflect figure return election.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Emp_112</t>
+          <t>Emp_122</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2023-11-12</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>2</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2023-11-12 00:00:00 - 2023-11-17 00:00:00</t>
-        </is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2024-02-12 08:51:48</t>
+          <t>2024-07-15 00:00:00 - 2024-07-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2024-01-22 20:38:33</t>
         </is>
       </c>
     </row>
@@ -4178,40 +4593,45 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Few win miss become street they as.</t>
+          <t>Consumer which personal yeah free me course join.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Emp_79</t>
+          <t>Emp_91</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>31</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2023-06-23 00:00:00 - 2023-06-28 00:00:00</t>
-        </is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>35</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2024-03-20 13:01:21</t>
+          <t>2024-03-25 00:00:00 - 2024-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2024-02-10 04:48:51</t>
         </is>
       </c>
     </row>
@@ -4223,40 +4643,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Loss hot rule well floor.</t>
+          <t>Maybe network suggest person cold themselves two.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Emp_56</t>
+          <t>Emp_105</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>Miranda</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>16</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2023-10-06 00:00:00 - 2023-10-12 00:00:00</t>
-        </is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>23</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2024-02-24 03:12:48</t>
+          <t>2024-07-01 00:00:00 - 2024-07-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2024-03-22 06:47:28</t>
         </is>
       </c>
     </row>
@@ -4268,40 +4693,45 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Actually concern case.</t>
+          <t>Best onto road recognize.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Emp_36</t>
+          <t>Emp_128</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>Bobby</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>36</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2023-09-10 00:00:00 - 2023-09-16 00:00:00</t>
-        </is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>11</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2024-02-22 23:33:40</t>
+          <t>2024-08-02 00:00:00 - 2024-08-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2024-02-14 20:29:05</t>
         </is>
       </c>
     </row>
@@ -4313,40 +4743,45 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Respond interview simply owner.</t>
+          <t>Cost hot pull fill.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Emp_81</t>
+          <t>Emp_73</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>Mackenzie</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>14</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2024-10-10 00:00:00 - 2024-10-18 00:00:00</t>
-        </is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>24</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2024-01-01 14:15:40</t>
+          <t>2023-06-11 00:00:00 - 2023-06-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2024-01-14 18:40:58</t>
         </is>
       </c>
     </row>
@@ -4358,40 +4793,45 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Suggest country against around popular whether exactly.</t>
+          <t>Score indicate training article bar air.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Emp_49</t>
+          <t>Emp_189</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>Darrell</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>26</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2024-01-27 00:00:00 - 2024-02-01 00:00:00</t>
-        </is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>20</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2024-03-17 02:25:00</t>
+          <t>2024-12-06 00:00:00 - 2024-12-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2024-03-31 12:23:53</t>
         </is>
       </c>
     </row>
@@ -4403,40 +4843,45 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Yes car information data place.</t>
+          <t>Turn company myself staff.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Emp_90</t>
+          <t>Emp_47</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>12</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2024-09-20 00:00:00 - 2024-09-30 00:00:00</t>
-        </is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2024-01-29 08:33:49</t>
+          <t>2023-11-22 00:00:00 - 2023-12-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2024-02-27 04:35:23</t>
         </is>
       </c>
     </row>
@@ -4448,40 +4893,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Security goal medical well.</t>
+          <t>Woman class bit full positive throw.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Emp_141</t>
+          <t>Emp_42</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>William</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>39</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2024-06-23 00:00:00 - 2024-07-02 00:00:00</t>
-        </is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>18</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2024-01-14 00:03:59</t>
+          <t>2024-10-18 00:00:00 - 2024-10-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2024-04-08 10:59:03</t>
         </is>
       </c>
     </row>
@@ -4498,35 +4948,40 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mother people media population debate.</t>
+          <t>Ground easy energy green.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Emp_6</t>
+          <t>Emp_56</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2023-11-23</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>8</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2023-11-23 00:00:00 - 2023-11-28 00:00:00</t>
-        </is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2024-03-02 11:52:25</t>
+          <t>2024-04-07 00:00:00 - 2024-04-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2024-01-23 22:46:09</t>
         </is>
       </c>
     </row>
@@ -4538,40 +4993,45 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Structure big space yes agreement need.</t>
+          <t>Training against visit bring.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Emp_12</t>
+          <t>Emp_9</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>18</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2024-01-03 00:00:00 - 2024-01-12 00:00:00</t>
-        </is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>28</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2024-02-25 16:39:53</t>
+          <t>2023-09-02 00:00:00 - 2023-09-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2024-02-14 07:01:58</t>
         </is>
       </c>
     </row>
@@ -4583,40 +5043,45 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Serve popular lawyer find world.</t>
+          <t>Open picture trouble let pretty consider.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Emp_136</t>
+          <t>Emp_32</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>34</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2024-02-02 00:00:00 - 2024-02-07 00:00:00</t>
-        </is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>19</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2024-01-14 01:42:37</t>
+          <t>2024-12-16 00:00:00 - 2024-12-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2024-02-16 21:32:43</t>
         </is>
       </c>
     </row>
@@ -4628,40 +5093,45 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Difficult military they material piece.</t>
+          <t>South general relationship rule.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Emp_9</t>
+          <t>Emp_134</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>5</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2023-08-29 00:00:00 - 2023-09-08 00:00:00</t>
-        </is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>25</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2024-01-25 05:34:26</t>
+          <t>2024-10-13 00:00:00 - 2024-10-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2024-04-07 01:52:33</t>
         </is>
       </c>
     </row>
@@ -4678,35 +5148,40 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Say another fight.</t>
+          <t>Opportunity third feel administration.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Emp_167</t>
+          <t>Emp_117</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2024-11-03</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
         <v>32</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2024-10-29 00:00:00 - 2024-11-03 00:00:00</t>
-        </is>
-      </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2024-02-18 16:13:23</t>
+          <t>2024-08-29 00:00:00 - 2024-09-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2024-03-17 23:45:11</t>
         </is>
       </c>
     </row>
@@ -4718,40 +5193,45 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sign popular forget old technology.</t>
+          <t>Else major friend reason civil ready control.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Emp_38</t>
+          <t>Emp_188</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>Jared</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>39</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2024-11-27 00:00:00 - 2024-12-04 00:00:00</t>
-        </is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>30</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2024-03-14 00:51:29</t>
+          <t>2024-05-24 00:00:00 - 2024-06-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2024-03-11 18:27:42</t>
         </is>
       </c>
     </row>
@@ -4763,40 +5243,45 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Same have prove without door mind.</t>
+          <t>Woman enter kitchen parent city exactly race include.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Emp_93</t>
+          <t>Emp_168</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>Joel</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>23</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2024-02-29 00:00:00 - 2024-03-09 00:00:00</t>
-        </is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>28</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2024-04-03 16:13:19</t>
+          <t>2023-08-26 00:00:00 - 2023-09-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2024-01-03 02:00:34</t>
         </is>
       </c>
     </row>
@@ -4808,40 +5293,45 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Option still information young research reveal history behind.</t>
+          <t>World note our spend put watch score nothing.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Emp_72</t>
+          <t>Emp_99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2023-06-05 00:00:00 - 2023-06-14 00:00:00</t>
-        </is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>19</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2024-02-03 13:49:35</t>
+          <t>2024-02-21 00:00:00 - 2024-02-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2024-01-04 13:38:55</t>
         </is>
       </c>
     </row>
@@ -4853,40 +5343,45 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Congress large friend American I player.</t>
+          <t>Service so keep body compare piece page.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Emp_58</t>
+          <t>Emp_117</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>35</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2023-07-09 00:00:00 - 2023-07-17 00:00:00</t>
-        </is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>31</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2024-03-05 17:59:40</t>
+          <t>2023-11-15 00:00:00 - 2023-11-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2024-03-24 22:04:54</t>
         </is>
       </c>
     </row>
@@ -4898,40 +5393,45 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Common on test enter.</t>
+          <t>Culture inside power.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Emp_146</t>
+          <t>Emp_177</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>John</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>4</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2024-07-20 00:00:00 - 2024-07-26 00:00:00</t>
-        </is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>30</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2024-01-28 05:26:05</t>
+          <t>2024-02-18 00:00:00 - 2024-02-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2024-04-03 23:19:25</t>
         </is>
       </c>
     </row>

--- a/backend/trainings_data.xlsx
+++ b/backend/trainings_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
